--- a/momentum_strategy.xlsx
+++ b/momentum_strategy.xlsx
@@ -55,10 +55,16 @@
     <t>ABMD</t>
   </si>
   <si>
+    <t>LVS</t>
+  </si>
+  <si>
+    <t>MPC</t>
+  </si>
+  <si>
     <t>ROST</t>
   </si>
   <si>
-    <t>MPC</t>
+    <t>GILD</t>
   </si>
   <si>
     <t>TJX</t>
@@ -67,139 +73,133 @@
     <t>DE</t>
   </si>
   <si>
-    <t>GILD</t>
+    <t>MRK</t>
   </si>
   <si>
     <t>AFL</t>
   </si>
   <si>
-    <t>LVS</t>
-  </si>
-  <si>
-    <t>MRK</t>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>WYNN</t>
   </si>
   <si>
     <t>IT</t>
   </si>
   <si>
-    <t>APD</t>
-  </si>
-  <si>
-    <t>PCAR</t>
-  </si>
-  <si>
-    <t>WYNN</t>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>ACGL</t>
   </si>
   <si>
     <t>SBUX</t>
   </si>
   <si>
+    <t>IPG</t>
+  </si>
+  <si>
+    <t>CAT</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>PSX</t>
+  </si>
+  <si>
+    <t>UHS</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>OMC</t>
+  </si>
+  <si>
+    <t>GL</t>
+  </si>
+  <si>
+    <t>WMT</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>VLO</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>PFG</t>
+  </si>
+  <si>
+    <t>JCI</t>
+  </si>
+  <si>
+    <t>EOG</t>
+  </si>
+  <si>
+    <t>CEG</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>ETN</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>SNA</t>
+  </si>
+  <si>
+    <t>XYL</t>
+  </si>
+  <si>
     <t>MNST</t>
   </si>
   <si>
-    <t>ABBV</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>AES</t>
-  </si>
-  <si>
-    <t>GPC</t>
-  </si>
-  <si>
-    <t>IPG</t>
-  </si>
-  <si>
-    <t>GS</t>
-  </si>
-  <si>
-    <t>BIIB</t>
-  </si>
-  <si>
-    <t>ACGL</t>
-  </si>
-  <si>
-    <t>AMGN</t>
-  </si>
-  <si>
-    <t>ANET</t>
-  </si>
-  <si>
-    <t>ORLY</t>
-  </si>
-  <si>
-    <t>JCI</t>
-  </si>
-  <si>
-    <t>CAH</t>
-  </si>
-  <si>
-    <t>VLO</t>
-  </si>
-  <si>
-    <t>CEG</t>
-  </si>
-  <si>
-    <t>RL</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>IBM</t>
-  </si>
-  <si>
-    <t>PSX</t>
-  </si>
-  <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>OMC</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>CAT</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>UHS</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>LIN</t>
-  </si>
-  <si>
     <t>NUE</t>
   </si>
   <si>
-    <t>ULTA</t>
-  </si>
-  <si>
-    <t>PFG</t>
-  </si>
-  <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>SNA</t>
-  </si>
-  <si>
-    <t>MTD</t>
+    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -630,37 +630,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>377.33</v>
+        <v>377.74</v>
       </c>
       <c r="C2" s="3">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D2" s="4">
-        <v>0.1572182342474999</v>
+        <v>0.1824078716470292</v>
       </c>
       <c r="E2" s="4">
-        <v>0.7875751503006012</v>
+        <v>0.8096192384769538</v>
       </c>
       <c r="F2" s="4">
-        <v>0.4163475257190059</v>
+        <v>0.4167229856574304</v>
       </c>
       <c r="G2" s="4">
         <v>0.9899799599198397</v>
       </c>
       <c r="H2" s="4">
-        <v>0.4614520378118705</v>
+        <v>0.468324383220484</v>
       </c>
       <c r="I2" s="4">
         <v>0.9979959919839679</v>
       </c>
       <c r="J2" s="4">
-        <v>0.4617918313570488</v>
+        <v>0.4621793381384174</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>0.9438877755511021</v>
+        <v>0.9493987975951903</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -668,37 +668,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>116.79</v>
+        <v>46.84</v>
       </c>
       <c r="C3" s="3">
-        <v>1712</v>
+        <v>4269</v>
       </c>
       <c r="D3" s="4">
-        <v>0.07207411379075901</v>
+        <v>0.1986044015029522</v>
       </c>
       <c r="E3" s="4">
-        <v>0.691382765531062</v>
+        <v>0.8236472945891784</v>
       </c>
       <c r="F3" s="4">
-        <v>0.3425536554216118</v>
+        <v>0.2900057770075102</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9819639278557115</v>
+        <v>0.9719438877755512</v>
       </c>
       <c r="H3" s="4">
-        <v>0.3382876542187629</v>
+        <v>0.1786751121667984</v>
       </c>
       <c r="I3" s="4">
-        <v>0.9919839679358717</v>
+        <v>0.9178356713426854</v>
       </c>
       <c r="J3" s="4">
-        <v>0.2204509701101207</v>
+        <v>0.2040981396602857</v>
       </c>
       <c r="K3" s="4">
-        <v>0.9919839679358717</v>
+        <v>0.9799599198396794</v>
       </c>
       <c r="L3" s="4">
-        <v>0.9143286573146292</v>
+        <v>0.9233466933867736</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -706,37 +706,37 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>123.47</v>
+        <v>121.81</v>
       </c>
       <c r="C4" s="3">
-        <v>1619</v>
+        <v>1641</v>
       </c>
       <c r="D4" s="4">
-        <v>1.039021029076788</v>
+        <v>1.050570894747768</v>
       </c>
       <c r="E4" s="4">
-        <v>0.995991983967936</v>
+        <v>0.9939879759519039</v>
       </c>
       <c r="F4" s="4">
-        <v>0.2089205485754628</v>
+        <v>0.2242898632924244</v>
       </c>
       <c r="G4" s="4">
+        <v>0.9338677354709419</v>
+      </c>
+      <c r="H4" s="4">
+        <v>0.18326807006649</v>
+      </c>
+      <c r="I4" s="4">
         <v>0.9278557114228456</v>
       </c>
-      <c r="H4" s="4">
-        <v>0.1758045803529149</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0.9238476953907816</v>
-      </c>
       <c r="J4" s="4">
-        <v>0.08024486259040819</v>
+        <v>0.0939782905514901</v>
       </c>
       <c r="K4" s="4">
-        <v>0.7955911823647296</v>
+        <v>0.8256513026052105</v>
       </c>
       <c r="L4" s="4">
-        <v>0.9108216432865732</v>
+        <v>0.9203406813627255</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -744,37 +744,37 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>80.16</v>
+        <v>117.67</v>
       </c>
       <c r="C5" s="3">
-        <v>2495</v>
+        <v>1699</v>
       </c>
       <c r="D5" s="4">
-        <v>0.174571258741772</v>
+        <v>0.06004373054793888</v>
       </c>
       <c r="E5" s="4">
-        <v>0.8036072144288577</v>
+        <v>0.6833667334669339</v>
       </c>
       <c r="F5" s="4">
-        <v>0.2500624796940996</v>
+        <v>0.3473991700325689</v>
       </c>
       <c r="G5" s="4">
-        <v>0.9519038076152304</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="H5" s="4">
-        <v>0.2778119286928893</v>
+        <v>0.3477521308539342</v>
       </c>
       <c r="I5" s="4">
-        <v>0.9859719438877755</v>
+        <v>0.9919839679358717</v>
       </c>
       <c r="J5" s="4">
-        <v>0.108436471618043</v>
+        <v>0.2248557944415313</v>
       </c>
       <c r="K5" s="4">
-        <v>0.8977955911823647</v>
+        <v>0.9879759519038076</v>
       </c>
       <c r="L5" s="4">
-        <v>0.9098196392785571</v>
+        <v>0.9113226452905812</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -782,37 +782,37 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>440.97</v>
+        <v>87.83</v>
       </c>
       <c r="C6" s="3">
-        <v>453</v>
+        <v>2277</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2434443755849651</v>
+        <v>0.2716073912179615</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8597194388777555</v>
+        <v>0.8757515030060121</v>
       </c>
       <c r="F6" s="4">
-        <v>0.2316134496286542</v>
+        <v>0.3551908423484498</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9418837675350702</v>
+        <v>0.9839679358717436</v>
       </c>
       <c r="H6" s="4">
-        <v>0.1667882263898666</v>
+        <v>0.3888326582963157</v>
       </c>
       <c r="I6" s="4">
-        <v>0.9078156312625251</v>
+        <v>0.9939879759519039</v>
       </c>
       <c r="J6" s="4">
-        <v>0.1117802696232832</v>
+        <v>0.08187208275514068</v>
       </c>
       <c r="K6" s="4">
-        <v>0.901803607214429</v>
+        <v>0.7735470941883767</v>
       </c>
       <c r="L6" s="4">
-        <v>0.902805611222445</v>
+        <v>0.9068136272545091</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -820,37 +820,37 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>85.76000000000001</v>
+        <v>80.05</v>
       </c>
       <c r="C7" s="3">
-        <v>2332</v>
+        <v>2498</v>
       </c>
       <c r="D7" s="4">
-        <v>0.2702856614698399</v>
+        <v>0.1546705386157783</v>
       </c>
       <c r="E7" s="4">
-        <v>0.8797595190380761</v>
+        <v>0.7875751503006012</v>
       </c>
       <c r="F7" s="4">
-        <v>0.3464996697354405</v>
+        <v>0.2520930697523305</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9839679358717436</v>
+        <v>0.9519038076152304</v>
       </c>
       <c r="H7" s="4">
-        <v>0.3816956540069334</v>
+        <v>0.2752249063387396</v>
       </c>
       <c r="I7" s="4">
-        <v>0.995991983967936</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="J7" s="4">
-        <v>0.07493377065724727</v>
+        <v>0.1102370056841475</v>
       </c>
       <c r="K7" s="4">
-        <v>0.749498997995992</v>
+        <v>0.8917835671342685</v>
       </c>
       <c r="L7" s="4">
-        <v>0.9023046092184369</v>
+        <v>0.9033066132264529</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -858,37 +858,37 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>70.88</v>
+        <v>441</v>
       </c>
       <c r="C8" s="3">
-        <v>2821</v>
+        <v>453</v>
       </c>
       <c r="D8" s="4">
-        <v>0.310719317000578</v>
+        <v>0.2827904714473888</v>
       </c>
       <c r="E8" s="4">
-        <v>0.8957915831663327</v>
+        <v>0.8797595190380761</v>
       </c>
       <c r="F8" s="4">
-        <v>0.1896662097258019</v>
+        <v>0.2309435028280132</v>
       </c>
       <c r="G8" s="4">
-        <v>0.9118236472945892</v>
+        <v>0.9418837675350702</v>
       </c>
       <c r="H8" s="4">
-        <v>0.1730859480861133</v>
+        <v>0.162384880482362</v>
       </c>
       <c r="I8" s="4">
-        <v>0.9158316633266533</v>
+        <v>0.8817635270541082</v>
       </c>
       <c r="J8" s="4">
-        <v>0.1021101395995825</v>
+        <v>0.1111755071185587</v>
       </c>
       <c r="K8" s="4">
-        <v>0.8817635270541082</v>
+        <v>0.8977955911823647</v>
       </c>
       <c r="L8" s="4">
-        <v>0.9013026052104208</v>
+        <v>0.9003006012024048</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -896,37 +896,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>44.66</v>
+        <v>110.12</v>
       </c>
       <c r="C9" s="3">
-        <v>4478</v>
+        <v>1816</v>
       </c>
       <c r="D9" s="4">
-        <v>0.1526274095590177</v>
+        <v>0.5043143303769493</v>
       </c>
       <c r="E9" s="4">
-        <v>0.7815631262525051</v>
+        <v>0.9539078156312626</v>
       </c>
       <c r="F9" s="4">
-        <v>0.2608318890814558</v>
+        <v>0.1883899412683803</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9579158316633267</v>
+        <v>0.9098196392785571</v>
       </c>
       <c r="H9" s="4">
-        <v>0.1508041128394411</v>
+        <v>0.252625461074123</v>
       </c>
       <c r="I9" s="4">
-        <v>0.8777555110220442</v>
+        <v>0.9759519038076152</v>
       </c>
       <c r="J9" s="4">
-        <v>0.1768670800754919</v>
+        <v>0.08008335814230438</v>
       </c>
       <c r="K9" s="4">
-        <v>0.9739478957915831</v>
+        <v>0.7615230460921844</v>
       </c>
       <c r="L9" s="4">
-        <v>0.8977955911823647</v>
+        <v>0.9003006012024048</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -934,37 +934,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>108.84</v>
+        <v>71.93000000000001</v>
       </c>
       <c r="C10" s="3">
-        <v>1837</v>
+        <v>2780</v>
       </c>
       <c r="D10" s="4">
-        <v>0.4180696992044688</v>
+        <v>0.3056340466918903</v>
       </c>
       <c r="E10" s="4">
-        <v>0.9378757515030059</v>
+        <v>0.8917835671342685</v>
       </c>
       <c r="F10" s="4">
-        <v>0.1841316531657096</v>
+        <v>0.1878228052594004</v>
       </c>
       <c r="G10" s="4">
+        <v>0.9078156312625251</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0.1722309599294809</v>
+      </c>
+      <c r="I10" s="4">
         <v>0.9038076152304609</v>
       </c>
-      <c r="H10" s="4">
-        <v>0.2247843498648163</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0.9699398797595191</v>
-      </c>
       <c r="J10" s="4">
-        <v>0.07621315867817802</v>
+        <v>0.1004024044910328</v>
       </c>
       <c r="K10" s="4">
-        <v>0.7635270541082164</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="L10" s="4">
-        <v>0.8937875751503006</v>
+        <v>0.8902805611222445</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,37 +972,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>340.08</v>
+        <v>105.91</v>
       </c>
       <c r="C11" s="3">
-        <v>588</v>
+        <v>1888</v>
       </c>
       <c r="D11" s="4">
-        <v>0.07412365357076123</v>
+        <v>0.2499985013445936</v>
       </c>
       <c r="E11" s="4">
-        <v>0.6993987975951904</v>
+        <v>0.8637274549098197</v>
       </c>
       <c r="F11" s="4">
-        <v>0.294234592445328</v>
+        <v>0.2258224567946378</v>
       </c>
       <c r="G11" s="4">
-        <v>0.9719438877755512</v>
+        <v>0.935871743486974</v>
       </c>
       <c r="H11" s="4">
-        <v>0.1697914900830648</v>
+        <v>0.1772875863120276</v>
       </c>
       <c r="I11" s="4">
         <v>0.9138276553106214</v>
       </c>
       <c r="J11" s="4">
-        <v>0.1424456143836297</v>
+        <v>0.08657589981741043</v>
       </c>
       <c r="K11" s="4">
-        <v>0.9519038076152304</v>
+        <v>0.7915831663326653</v>
       </c>
       <c r="L11" s="4">
-        <v>0.8842685370741483</v>
+        <v>0.8762525050100201</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1010,37 +1010,37 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>302.18</v>
+        <v>310.16</v>
       </c>
       <c r="C12" s="3">
-        <v>661</v>
+        <v>644</v>
       </c>
       <c r="D12" s="4">
-        <v>0.06316779725293009</v>
+        <v>0.06349993471466098</v>
       </c>
       <c r="E12" s="4">
-        <v>0.6733466933867736</v>
+        <v>0.6893787575150302</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2314375332420588</v>
+        <v>0.2222157058237053</v>
       </c>
       <c r="G12" s="4">
-        <v>0.939879759519038</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="H12" s="4">
-        <v>0.1692146990940755</v>
+        <v>0.1672693321981771</v>
       </c>
       <c r="I12" s="4">
-        <v>0.9118236472945892</v>
+        <v>0.8917835671342685</v>
       </c>
       <c r="J12" s="4">
-        <v>0.1965885867002044</v>
+        <v>0.1876277314887597</v>
       </c>
       <c r="K12" s="4">
-        <v>0.9819639278557115</v>
+        <v>0.9759519038076152</v>
       </c>
       <c r="L12" s="4">
-        <v>0.8767535070140281</v>
+        <v>0.8722444889779559</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,37 +1048,37 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>104.26</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="C13" s="3">
-        <v>1918</v>
+        <v>2390</v>
       </c>
       <c r="D13" s="4">
-        <v>0.2361763839126456</v>
+        <v>-0.03265060240963846</v>
       </c>
       <c r="E13" s="4">
-        <v>0.8517034068136273</v>
+        <v>0.5551102204408818</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2181801721512795</v>
+        <v>0.2303095311063439</v>
       </c>
       <c r="G13" s="4">
-        <v>0.9318637274549099</v>
+        <v>0.939879759519038</v>
       </c>
       <c r="H13" s="4">
-        <v>0.1557734010369722</v>
+        <v>0.2864925492709502</v>
       </c>
       <c r="I13" s="4">
-        <v>0.8877755511022045</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="J13" s="4">
-        <v>0.07980173585346129</v>
+        <v>0.377186963979417</v>
       </c>
       <c r="K13" s="4">
-        <v>0.7915831663326653</v>
+        <v>0.9979959919839679</v>
       </c>
       <c r="L13" s="4">
-        <v>0.8657314629258518</v>
+        <v>0.8697394789579158</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,37 +1086,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>80.29000000000001</v>
+        <v>350.37</v>
       </c>
       <c r="C14" s="3">
-        <v>2490</v>
+        <v>570</v>
       </c>
       <c r="D14" s="4">
-        <v>-0.08740809896137236</v>
+        <v>0.0464</v>
       </c>
       <c r="E14" s="4">
-        <v>0.4649298597194389</v>
+        <v>0.6653306613226454</v>
       </c>
       <c r="F14" s="4">
-        <v>0.1982837879252222</v>
+        <v>0.2756667541918303</v>
       </c>
       <c r="G14" s="4">
-        <v>0.9198396793587175</v>
+        <v>0.9639278557114228</v>
       </c>
       <c r="H14" s="4">
-        <v>0.2546125461254614</v>
+        <v>0.1690615331729117</v>
       </c>
       <c r="I14" s="4">
-        <v>0.9779559118236473</v>
+        <v>0.8957915831663327</v>
       </c>
       <c r="J14" s="4">
-        <v>0.3413379073756433</v>
+        <v>0.1260554286281912</v>
       </c>
       <c r="K14" s="4">
-        <v>0.9979959919839679</v>
+        <v>0.9238476953907816</v>
       </c>
       <c r="L14" s="4">
-        <v>0.8401803607214429</v>
+        <v>0.8622244488977956</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1124,37 +1124,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>98.66</v>
+        <v>113.12</v>
       </c>
       <c r="C15" s="3">
-        <v>2027</v>
+        <v>1768</v>
       </c>
       <c r="D15" s="4">
-        <v>-0.08194134139294429</v>
+        <v>-0.02678206604509492</v>
       </c>
       <c r="E15" s="4">
-        <v>0.4749498997995992</v>
+        <v>0.5671342685370742</v>
       </c>
       <c r="F15" s="4">
-        <v>0.3084724452891148</v>
+        <v>0.1586553591667059</v>
       </c>
       <c r="G15" s="4">
-        <v>0.9759519038076152</v>
+        <v>0.8797595190380761</v>
       </c>
       <c r="H15" s="4">
-        <v>0.1872985768302282</v>
+        <v>0.2199889328183087</v>
       </c>
       <c r="I15" s="4">
-        <v>0.9498997995991983</v>
+        <v>0.9599198396793588</v>
       </c>
       <c r="J15" s="4">
-        <v>0.1458582554987491</v>
+        <v>0.2077615780445969</v>
       </c>
       <c r="K15" s="4">
-        <v>0.9579158316633267</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="L15" s="4">
-        <v>0.8396793587174348</v>
+        <v>0.8471943887775552</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,37 +1162,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>99.79000000000001</v>
+        <v>59.92</v>
       </c>
       <c r="C16" s="3">
-        <v>2004</v>
+        <v>3337</v>
       </c>
       <c r="D16" s="4">
-        <v>0.1703618609994255</v>
+        <v>0.413371675053918</v>
       </c>
       <c r="E16" s="4">
-        <v>0.7955911823647296</v>
+        <v>0.9298597194388778</v>
       </c>
       <c r="F16" s="4">
-        <v>0.1361659417865506</v>
+        <v>0.2427307206068268</v>
       </c>
       <c r="G16" s="4">
-        <v>0.8537074148296594</v>
+        <v>0.9458917835671343</v>
       </c>
       <c r="H16" s="4">
-        <v>0.142793045429052</v>
+        <v>0.2755190311418685</v>
       </c>
       <c r="I16" s="4">
-        <v>0.8597194388777555</v>
+        <v>0.9839679358717436</v>
       </c>
       <c r="J16" s="4">
-        <v>0.08915971776779985</v>
+        <v>0.04057868736767811</v>
       </c>
       <c r="K16" s="4">
-        <v>0.8356713426853708</v>
+        <v>0.498997995991984</v>
       </c>
       <c r="L16" s="4">
-        <v>0.8361723446893788</v>
+        <v>0.8396793587174349</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,37 +1200,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>158.2</v>
+        <v>102.23</v>
       </c>
       <c r="C17" s="3">
-        <v>1264</v>
+        <v>1956</v>
       </c>
       <c r="D17" s="4">
-        <v>0.4127762484517246</v>
+        <v>-0.08252103059689142</v>
       </c>
       <c r="E17" s="4">
-        <v>0.935871743486974</v>
+        <v>0.4769539078156313</v>
       </c>
       <c r="F17" s="4">
-        <v>0.0769272599974169</v>
+        <v>0.3084724452891148</v>
       </c>
       <c r="G17" s="4">
-        <v>0.7434869739478959</v>
+        <v>0.9739478957915831</v>
       </c>
       <c r="H17" s="4">
-        <v>0.1737590071167892</v>
+        <v>0.1864518883296955</v>
       </c>
       <c r="I17" s="4">
-        <v>0.9178356713426854</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="J17" s="4">
-        <v>0.07330126685183935</v>
+        <v>0.1458582554987491</v>
       </c>
       <c r="K17" s="4">
-        <v>0.7394789579158316</v>
+        <v>0.9498997995991983</v>
       </c>
       <c r="L17" s="4">
-        <v>0.8341683366733468</v>
+        <v>0.8331663326653307</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1238,37 +1238,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>152.97</v>
+        <v>34.36</v>
       </c>
       <c r="C18" s="3">
-        <v>1307</v>
+        <v>5820</v>
       </c>
       <c r="D18" s="4">
-        <v>0.07634845054483508</v>
+        <v>0.04463206481529425</v>
       </c>
       <c r="E18" s="4">
-        <v>0.7014028056112225</v>
+        <v>0.6613226452905812</v>
       </c>
       <c r="F18" s="4">
-        <v>0.2000196993657899</v>
+        <v>0.08375317845128483</v>
       </c>
       <c r="G18" s="4">
-        <v>0.9218436873747495</v>
+        <v>0.7655310621242485</v>
       </c>
       <c r="H18" s="4">
-        <v>0.1664893617021277</v>
+        <v>0.223635313166473</v>
       </c>
       <c r="I18" s="4">
-        <v>0.905811623246493</v>
+        <v>0.9639278557114228</v>
       </c>
       <c r="J18" s="4">
-        <v>0.0771875657848573</v>
+        <v>0.1345899470899472</v>
       </c>
       <c r="K18" s="4">
-        <v>0.7775551102204409</v>
+        <v>0.9378757515030059</v>
       </c>
       <c r="L18" s="4">
-        <v>0.8266533066132264</v>
+        <v>0.8321643286573146</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1276,37 +1276,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>150.94</v>
+        <v>236.41</v>
       </c>
       <c r="C19" s="3">
-        <v>1325</v>
+        <v>845</v>
       </c>
       <c r="D19" s="4">
-        <v>0.007926418062464968</v>
+        <v>0.2282912375065562</v>
       </c>
       <c r="E19" s="4">
-        <v>0.6072144288577155</v>
+        <v>0.8476953907815631</v>
       </c>
       <c r="F19" s="4">
-        <v>0.1706919611972884</v>
+        <v>0.097641135959605</v>
       </c>
       <c r="G19" s="4">
-        <v>0.8917835671342685</v>
+        <v>0.8016032064128257</v>
       </c>
       <c r="H19" s="4">
-        <v>0.174740986196215</v>
+        <v>0.234191384701633</v>
       </c>
       <c r="I19" s="4">
-        <v>0.9198396793587175</v>
+        <v>0.9679358717434871</v>
       </c>
       <c r="J19" s="4">
-        <v>0.09749945953736394</v>
+        <v>0.07194310203337295</v>
       </c>
       <c r="K19" s="4">
-        <v>0.8617234468937877</v>
+        <v>0.7074148296593187</v>
       </c>
       <c r="L19" s="4">
-        <v>0.8201402805611223</v>
+        <v>0.8311623246492986</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1314,37 +1314,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>28.26</v>
+        <v>28.92</v>
       </c>
       <c r="C20" s="3">
-        <v>7077</v>
+        <v>6915</v>
       </c>
       <c r="D20" s="4">
-        <v>0.2098148603578532</v>
+        <v>0.2301504387797744</v>
       </c>
       <c r="E20" s="4">
-        <v>0.8356713426853708</v>
+        <v>0.8496993987975953</v>
       </c>
       <c r="F20" s="4">
-        <v>0.2666004155750292</v>
+        <v>0.2765380793206252</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9639278557114228</v>
+        <v>0.9659318637274549</v>
       </c>
       <c r="H20" s="4">
-        <v>0.1006005416650311</v>
+        <v>0.1157656181523143</v>
       </c>
       <c r="I20" s="4">
-        <v>0.7715430861723448</v>
+        <v>0.7855711422845691</v>
       </c>
       <c r="J20" s="4">
-        <v>0.06607862519960461</v>
+        <v>0.07444300813626348</v>
       </c>
       <c r="K20" s="4">
-        <v>0.7074148296593187</v>
+        <v>0.7234468937875752</v>
       </c>
       <c r="L20" s="4">
-        <v>0.8196392785571143</v>
+        <v>0.8311623246492986</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,37 +1352,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>180.55</v>
+        <v>386.15</v>
       </c>
       <c r="C21" s="3">
-        <v>1107</v>
+        <v>517</v>
       </c>
       <c r="D21" s="4">
-        <v>0.4206155561396285</v>
+        <v>0.01137816913956291</v>
       </c>
       <c r="E21" s="4">
-        <v>0.939879759519038</v>
+        <v>0.6232464929859719</v>
       </c>
       <c r="F21" s="4">
-        <v>0.3328755354816371</v>
+        <v>0.1765993760536837</v>
       </c>
       <c r="G21" s="4">
-        <v>0.9799599198396794</v>
+        <v>0.901803607214429</v>
       </c>
       <c r="H21" s="4">
-        <v>0.1781567437787175</v>
+        <v>0.1577833176129948</v>
       </c>
       <c r="I21" s="4">
-        <v>0.9298597194388778</v>
+        <v>0.8717434869739479</v>
       </c>
       <c r="J21" s="4">
-        <v>0.02443251705244309</v>
+        <v>0.1225498800538294</v>
       </c>
       <c r="K21" s="4">
-        <v>0.4268537074148297</v>
+        <v>0.9178356713426854</v>
       </c>
       <c r="L21" s="4">
-        <v>0.8191382765531062</v>
+        <v>0.8286573146292585</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1390,37 +1390,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>34.31</v>
+        <v>161.18</v>
       </c>
       <c r="C22" s="3">
-        <v>5829</v>
+        <v>1240</v>
       </c>
       <c r="D22" s="4">
-        <v>0.03886947458770162</v>
+        <v>0.4061384788639253</v>
       </c>
       <c r="E22" s="4">
-        <v>0.655310621242485</v>
+        <v>0.9278557114228456</v>
       </c>
       <c r="F22" s="4">
-        <v>0.07048659917557698</v>
+        <v>0.07536383596283125</v>
       </c>
       <c r="G22" s="4">
-        <v>0.7354709418837676</v>
+        <v>0.7414829659318637</v>
       </c>
       <c r="H22" s="4">
-        <v>0.1997649324534822</v>
+        <v>0.1775827545908608</v>
       </c>
       <c r="I22" s="4">
-        <v>0.9579158316633267</v>
+        <v>0.9158316633266533</v>
       </c>
       <c r="J22" s="4">
-        <v>0.1207010582010584</v>
+        <v>0.07174310683558005</v>
       </c>
       <c r="K22" s="4">
-        <v>0.9258517034068136</v>
+        <v>0.7054108216432866</v>
       </c>
       <c r="L22" s="4">
-        <v>0.8186372745490982</v>
+        <v>0.8226452905811623</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1428,37 +1428,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>383.71</v>
+        <v>108.44</v>
       </c>
       <c r="C23" s="3">
-        <v>521</v>
+        <v>1844</v>
       </c>
       <c r="D23" s="4">
-        <v>0.0004434961099242241</v>
+        <v>0.6243620015264262</v>
       </c>
       <c r="E23" s="4">
-        <v>0.5971943887775552</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="F23" s="4">
-        <v>0.1724597676054482</v>
+        <v>0.09246064805764176</v>
       </c>
       <c r="G23" s="4">
-        <v>0.8937875751503006</v>
+        <v>0.7875751503006012</v>
       </c>
       <c r="H23" s="4">
-        <v>0.1452046129258726</v>
+        <v>0.1795026107738802</v>
       </c>
       <c r="I23" s="4">
-        <v>0.8657314629258518</v>
+        <v>0.9218436873747495</v>
       </c>
       <c r="J23" s="4">
-        <v>0.1186004329764203</v>
+        <v>0.05498773844204141</v>
       </c>
       <c r="K23" s="4">
-        <v>0.9138276553106214</v>
+        <v>0.6012024048096193</v>
       </c>
       <c r="L23" s="4">
-        <v>0.8176352705410822</v>
+        <v>0.8181362725450902</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1466,37 +1466,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>291.41</v>
+        <v>130.85</v>
       </c>
       <c r="C24" s="3">
-        <v>686</v>
+        <v>1528</v>
       </c>
       <c r="D24" s="4">
-        <v>0.2017291066282421</v>
+        <v>0.08196137095404055</v>
       </c>
       <c r="E24" s="4">
-        <v>0.8256513026052105</v>
+        <v>0.7134268537074149</v>
       </c>
       <c r="F24" s="4">
-        <v>0.415615906886518</v>
+        <v>0.04683200010263855</v>
       </c>
       <c r="G24" s="4">
+        <v>0.6613226452905812</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.2912063457525198</v>
+      </c>
+      <c r="I24" s="4">
         <v>0.9879759519038076</v>
       </c>
-      <c r="H24" s="4">
-        <v>0.4698625308424391</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
       <c r="J24" s="4">
-        <v>0.02676844067677364</v>
+        <v>0.1156212613228509</v>
       </c>
       <c r="K24" s="4">
-        <v>0.4468937875751503</v>
+        <v>0.9078156312625251</v>
       </c>
       <c r="L24" s="4">
-        <v>0.8151302605210421</v>
+        <v>0.8176352705410822</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1504,37 +1504,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>58.98</v>
+        <v>337.94</v>
       </c>
       <c r="C25" s="3">
-        <v>3390</v>
+        <v>591</v>
       </c>
       <c r="D25" s="4">
-        <v>0.3850560993077108</v>
+        <v>0.2955667325869293</v>
       </c>
       <c r="E25" s="4">
-        <v>0.9238476953907816</v>
+        <v>0.8877755511022045</v>
       </c>
       <c r="F25" s="4">
-        <v>0.222503160556258</v>
+        <v>0.1816595641636172</v>
       </c>
       <c r="G25" s="4">
-        <v>0.935871743486974</v>
+        <v>0.9038076152304609</v>
       </c>
       <c r="H25" s="4">
-        <v>0.2477419354838711</v>
+        <v>0.2292036326513125</v>
       </c>
       <c r="I25" s="4">
-        <v>0.9759519038076152</v>
+        <v>0.9659318637274549</v>
       </c>
       <c r="J25" s="4">
-        <v>0.02364149611856048</v>
+        <v>0.0399925250537263</v>
       </c>
       <c r="K25" s="4">
-        <v>0.4208416833667335</v>
+        <v>0.4949899799599198</v>
       </c>
       <c r="L25" s="4">
-        <v>0.8141282565130261</v>
+        <v>0.81312625250501</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1542,37 +1542,37 @@
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>281.99</v>
+        <v>139.3</v>
       </c>
       <c r="C26" s="3">
-        <v>709</v>
+        <v>1435</v>
       </c>
       <c r="D26" s="4">
-        <v>0.4498322243192403</v>
+        <v>0.05616113744075846</v>
       </c>
       <c r="E26" s="4">
-        <v>0.9498997995991983</v>
+        <v>0.6773547094188378</v>
       </c>
       <c r="F26" s="4">
-        <v>0.1234199794809498</v>
+        <v>0.2629640124681214</v>
       </c>
       <c r="G26" s="4">
-        <v>0.845691382765531</v>
+        <v>0.9599198396793588</v>
       </c>
       <c r="H26" s="4">
-        <v>0.1824916591284322</v>
+        <v>0.0997696989636454</v>
       </c>
       <c r="I26" s="4">
-        <v>0.9418837675350702</v>
+        <v>0.7535070140280561</v>
       </c>
       <c r="J26" s="4">
-        <v>0.03928483435501606</v>
+        <v>0.1007656211410226</v>
       </c>
       <c r="K26" s="4">
-        <v>0.5130260521042085</v>
+        <v>0.8597194388777555</v>
       </c>
       <c r="L26" s="4">
-        <v>0.812625250501002</v>
+        <v>0.8126252505010021</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1580,37 +1580,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>133.71</v>
+        <v>305.13</v>
       </c>
       <c r="C27" s="3">
-        <v>1495</v>
+        <v>655</v>
       </c>
       <c r="D27" s="4">
-        <v>0.06985676562374965</v>
+        <v>0.2342128668840795</v>
       </c>
       <c r="E27" s="4">
-        <v>0.6813627254509018</v>
+        <v>0.8537074148296594</v>
       </c>
       <c r="F27" s="4">
-        <v>0.2628695570038726</v>
+        <v>0.4132395732298741</v>
       </c>
       <c r="G27" s="4">
-        <v>0.9599198396793588</v>
+        <v>0.9879759519038076</v>
       </c>
       <c r="H27" s="4">
-        <v>0.0867268145980653</v>
+        <v>0.4784130688448074</v>
       </c>
       <c r="I27" s="4">
-        <v>0.7294589178356713</v>
+        <v>1</v>
       </c>
       <c r="J27" s="4">
-        <v>0.1006832962871491</v>
+        <v>0.02504484857012201</v>
       </c>
       <c r="K27" s="4">
-        <v>0.8757515030060121</v>
+        <v>0.4028056112224449</v>
       </c>
       <c r="L27" s="4">
-        <v>0.811623246492986</v>
+        <v>0.811122244488978</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1618,37 +1618,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>849.73</v>
+        <v>79.76000000000001</v>
       </c>
       <c r="C28" s="3">
-        <v>235</v>
+        <v>2507</v>
       </c>
       <c r="D28" s="4">
-        <v>0.3410724678715806</v>
+        <v>0.2140101331927573</v>
       </c>
       <c r="E28" s="4">
-        <v>0.9118236472945892</v>
+        <v>0.8396793587174349</v>
       </c>
       <c r="F28" s="4">
-        <v>0.3170204220347883</v>
+        <v>0.07154567334183204</v>
       </c>
       <c r="G28" s="4">
-        <v>0.9779559118236473</v>
+        <v>0.7294589178356713</v>
       </c>
       <c r="H28" s="4">
-        <v>0.2200518038323387</v>
+        <v>0.1670222854433381</v>
       </c>
       <c r="I28" s="4">
-        <v>0.9659318637274549</v>
+        <v>0.8897795591182366</v>
       </c>
       <c r="J28" s="4">
-        <v>0.01944278369006347</v>
+        <v>0.08499793359966934</v>
       </c>
       <c r="K28" s="4">
-        <v>0.3867735470941884</v>
+        <v>0.7855711422845691</v>
       </c>
       <c r="L28" s="4">
-        <v>0.8106212424849699</v>
+        <v>0.811122244488978</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1656,37 +1656,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>65.40000000000001</v>
+        <v>119.96</v>
       </c>
       <c r="C29" s="3">
-        <v>3058</v>
+        <v>1667</v>
       </c>
       <c r="D29" s="4">
-        <v>-0.1289276972944366</v>
+        <v>0.3367567068605362</v>
       </c>
       <c r="E29" s="4">
-        <v>0.4148296593186373</v>
+        <v>0.9118236472945892</v>
       </c>
       <c r="F29" s="4">
-        <v>0.2207331815451248</v>
+        <v>0.2006079805118704</v>
       </c>
       <c r="G29" s="4">
-        <v>0.9338677354709419</v>
+        <v>0.9218436873747495</v>
       </c>
       <c r="H29" s="4">
-        <v>0.2139314490108228</v>
+        <v>0.2000098210522439</v>
       </c>
       <c r="I29" s="4">
-        <v>0.9619238476953907</v>
+        <v>0.9418837675350702</v>
       </c>
       <c r="J29" s="4">
-        <v>0.1216354344122656</v>
+        <v>0.03157154164101672</v>
       </c>
       <c r="K29" s="4">
-        <v>0.9278557114228456</v>
+        <v>0.4529058116232465</v>
       </c>
       <c r="L29" s="4">
-        <v>0.8096192384769539</v>
+        <v>0.8071142284569138</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1694,37 +1694,37 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>78.65000000000001</v>
+        <v>152.42</v>
       </c>
       <c r="C30" s="3">
-        <v>2542</v>
+        <v>1312</v>
       </c>
       <c r="D30" s="4">
-        <v>0.7063829509594326</v>
+        <v>0.08963235859781693</v>
       </c>
       <c r="E30" s="4">
-        <v>0.9759519038076152</v>
+        <v>0.7194388777555111</v>
       </c>
       <c r="F30" s="4">
-        <v>0.3825721198323151</v>
+        <v>0.1957984066965337</v>
       </c>
       <c r="G30" s="4">
-        <v>0.9859719438877755</v>
+        <v>0.9178356713426854</v>
       </c>
       <c r="H30" s="4">
-        <v>0.1692002318730004</v>
+        <v>0.1511890427453342</v>
       </c>
       <c r="I30" s="4">
-        <v>0.9098196392785571</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="J30" s="4">
-        <v>0.01711174487943978</v>
+        <v>0.07339835800996419</v>
       </c>
       <c r="K30" s="4">
-        <v>0.3667334669338678</v>
+        <v>0.717434869739479</v>
       </c>
       <c r="L30" s="4">
-        <v>0.8096192384769539</v>
+        <v>0.8031062124248497</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1732,37 +1732,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>135.2</v>
+        <v>286.6</v>
       </c>
       <c r="C31" s="3">
-        <v>1479</v>
+        <v>697</v>
       </c>
       <c r="D31" s="4">
-        <v>1.053725232765172</v>
+        <v>0.4296795781788683</v>
       </c>
       <c r="E31" s="4">
-        <v>0.9979959919839679</v>
+        <v>0.9418837675350702</v>
       </c>
       <c r="F31" s="4">
-        <v>0.03917562638383987</v>
+        <v>0.120915717266411</v>
       </c>
       <c r="G31" s="4">
-        <v>0.6593186372745491</v>
+        <v>0.8376753507014029</v>
       </c>
       <c r="H31" s="4">
-        <v>0.1140938155564974</v>
+        <v>0.1861152297128194</v>
       </c>
       <c r="I31" s="4">
-        <v>0.7875751503006012</v>
+        <v>0.9298597194388778</v>
       </c>
       <c r="J31" s="4">
-        <v>0.07783531277527422</v>
+        <v>0.03696812129279947</v>
       </c>
       <c r="K31" s="4">
-        <v>0.7835671342685372</v>
+        <v>0.4869739478957916</v>
       </c>
       <c r="L31" s="4">
-        <v>0.8071142284569138</v>
+        <v>0.7990981963927856</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1770,37 +1770,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>94.43000000000001</v>
+        <v>154.98</v>
       </c>
       <c r="C32" s="3">
-        <v>2117</v>
+        <v>1290</v>
       </c>
       <c r="D32" s="4">
-        <v>0.8048046904743777</v>
+        <v>-0.009863969452329036</v>
       </c>
       <c r="E32" s="4">
-        <v>0.9839679358717436</v>
+        <v>0.5891783567134269</v>
       </c>
       <c r="F32" s="4">
-        <v>0.428306716099748</v>
+        <v>0.1602379817670301</v>
       </c>
       <c r="G32" s="4">
-        <v>0.9919839679358717</v>
+        <v>0.8857715430861723</v>
       </c>
       <c r="H32" s="4">
-        <v>0.1747504847812753</v>
+        <v>0.1802450099187809</v>
       </c>
       <c r="I32" s="4">
-        <v>0.9218436873747495</v>
+        <v>0.9238476953907816</v>
       </c>
       <c r="J32" s="4">
-        <v>0.01285376703401875</v>
+        <v>0.08769907040426594</v>
       </c>
       <c r="K32" s="4">
-        <v>0.3306613226452906</v>
+        <v>0.7955911823647296</v>
       </c>
       <c r="L32" s="4">
-        <v>0.8071142284569138</v>
+        <v>0.7985971943887776</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1808,37 +1808,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>112.66</v>
+        <v>76.7</v>
       </c>
       <c r="C33" s="3">
-        <v>1775</v>
+        <v>2607</v>
       </c>
       <c r="D33" s="4">
-        <v>-0.04592465323625528</v>
+        <v>0.3076827867894298</v>
       </c>
       <c r="E33" s="4">
-        <v>0.5370741482965932</v>
+        <v>0.8937875751503006</v>
       </c>
       <c r="F33" s="4">
-        <v>0.1102152141136688</v>
+        <v>0.1399362822522394</v>
       </c>
       <c r="G33" s="4">
-        <v>0.8176352705410822</v>
+        <v>0.8597194388777555</v>
       </c>
       <c r="H33" s="4">
-        <v>0.1569348033210836</v>
+        <v>0.1705129822768914</v>
       </c>
       <c r="I33" s="4">
-        <v>0.8897795591182366</v>
+        <v>0.8977955911823647</v>
       </c>
       <c r="J33" s="4">
-        <v>0.1572684391080619</v>
+        <v>0.04712546371814175</v>
       </c>
       <c r="K33" s="4">
-        <v>0.9659318637274549</v>
+        <v>0.5390781563126253</v>
       </c>
       <c r="L33" s="4">
-        <v>0.8026052104208417</v>
+        <v>0.7975951903807615</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1846,37 +1846,37 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>342.73</v>
+        <v>170.69</v>
       </c>
       <c r="C34" s="3">
-        <v>583</v>
+        <v>1171</v>
       </c>
       <c r="D34" s="4">
-        <v>-0.04041631007923152</v>
+        <v>0.418455294580808</v>
       </c>
       <c r="E34" s="4">
-        <v>0.5410821643286573</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="F34" s="4">
-        <v>0.1685268607543871</v>
+        <v>0.08039586631146811</v>
       </c>
       <c r="G34" s="4">
-        <v>0.8877755511022045</v>
+        <v>0.7595190380761524</v>
       </c>
       <c r="H34" s="4">
-        <v>0.134358070622022</v>
+        <v>0.1454675574797533</v>
       </c>
       <c r="I34" s="4">
-        <v>0.845691382765531</v>
+        <v>0.843687374749499</v>
       </c>
       <c r="J34" s="4">
-        <v>0.1227429826544786</v>
+        <v>0.06047954645077258</v>
       </c>
       <c r="K34" s="4">
-        <v>0.9298597194388778</v>
+        <v>0.6492985971943888</v>
       </c>
       <c r="L34" s="4">
-        <v>0.8011022044088176</v>
+        <v>0.7960921843687375</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1884,37 +1884,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>146.49</v>
+        <v>133.62</v>
       </c>
       <c r="C35" s="3">
-        <v>1365</v>
+        <v>1496</v>
       </c>
       <c r="D35" s="4">
-        <v>0.3248406257873548</v>
+        <v>1.054377175748017</v>
       </c>
       <c r="E35" s="4">
-        <v>0.9078156312625251</v>
+        <v>0.995991983967936</v>
       </c>
       <c r="F35" s="4">
-        <v>0.07551248339054983</v>
+        <v>0.0419500495928149</v>
       </c>
       <c r="G35" s="4">
-        <v>0.7374749498997996</v>
+        <v>0.6472945891783567</v>
       </c>
       <c r="H35" s="4">
-        <v>0.1345520700258764</v>
+        <v>0.103129558976635</v>
       </c>
       <c r="I35" s="4">
-        <v>0.8476953907815631</v>
+        <v>0.7695390781563127</v>
       </c>
       <c r="J35" s="4">
-        <v>0.06795832785400147</v>
+        <v>0.08071295080997509</v>
       </c>
       <c r="K35" s="4">
-        <v>0.7114228456913828</v>
+        <v>0.7655310621242485</v>
       </c>
       <c r="L35" s="4">
-        <v>0.8011022044088176</v>
+        <v>0.7945891783567135</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1922,37 +1922,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>108.97</v>
+        <v>864</v>
       </c>
       <c r="C36" s="3">
-        <v>1835</v>
+        <v>231</v>
       </c>
       <c r="D36" s="4">
-        <v>0.6213777650791741</v>
+        <v>0.3191492664752</v>
       </c>
       <c r="E36" s="4">
-        <v>0.9619238476953907</v>
+        <v>0.905811623246493</v>
       </c>
       <c r="F36" s="4">
-        <v>0.08093151393571563</v>
+        <v>0.3126486853894399</v>
       </c>
       <c r="G36" s="4">
-        <v>0.751503006012024</v>
+        <v>0.9759519038076152</v>
       </c>
       <c r="H36" s="4">
-        <v>0.1799687661764175</v>
+        <v>0.2056841238985769</v>
       </c>
       <c r="I36" s="4">
-        <v>0.9378757515030059</v>
+        <v>0.9519038076152304</v>
       </c>
       <c r="J36" s="4">
-        <v>0.04385406954960902</v>
+        <v>0.01605883056319501</v>
       </c>
       <c r="K36" s="4">
-        <v>0.5490981963927856</v>
+        <v>0.3406813627254509</v>
       </c>
       <c r="L36" s="4">
-        <v>0.8001002004008015</v>
+        <v>0.7935871743486974</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1960,37 +1960,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>162.15</v>
+        <v>148.9</v>
       </c>
       <c r="C37" s="3">
-        <v>1233</v>
+        <v>1343</v>
       </c>
       <c r="D37" s="4">
-        <v>-0.008235519506430089</v>
+        <v>0.2975118843372984</v>
       </c>
       <c r="E37" s="4">
-        <v>0.5811623246492986</v>
+        <v>0.8897795591182366</v>
       </c>
       <c r="F37" s="4">
-        <v>0.1749220814516268</v>
+        <v>0.0777932938287158</v>
       </c>
       <c r="G37" s="4">
-        <v>0.8957915831663327</v>
+        <v>0.751503006012024</v>
       </c>
       <c r="H37" s="4">
-        <v>0.1581132763740618</v>
+        <v>0.1375690547670116</v>
       </c>
       <c r="I37" s="4">
-        <v>0.8957915831663327</v>
+        <v>0.8356713426853708</v>
       </c>
       <c r="J37" s="4">
-        <v>0.08721461034509281</v>
+        <v>0.07022311839740514</v>
       </c>
       <c r="K37" s="4">
-        <v>0.8256513026052105</v>
+        <v>0.691382765531062</v>
       </c>
       <c r="L37" s="4">
-        <v>0.7995991983967936</v>
+        <v>0.7920841683366734</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1998,37 +1998,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>78.76000000000001</v>
+        <v>89.66</v>
       </c>
       <c r="C38" s="3">
-        <v>2539</v>
+        <v>2230</v>
       </c>
       <c r="D38" s="4">
-        <v>0.1996297495897621</v>
+        <v>0.3137748946742691</v>
       </c>
       <c r="E38" s="4">
-        <v>0.8236472945891784</v>
+        <v>0.901803607214429</v>
       </c>
       <c r="F38" s="4">
-        <v>0.06324650040203372</v>
+        <v>0.2533796886640569</v>
       </c>
       <c r="G38" s="4">
-        <v>0.7234468937875752</v>
+        <v>0.9539078156312626</v>
       </c>
       <c r="H38" s="4">
-        <v>0.153583859568325</v>
+        <v>0.1969250855993285</v>
       </c>
       <c r="I38" s="4">
-        <v>0.8817635270541082</v>
+        <v>0.939879759519038</v>
       </c>
       <c r="J38" s="4">
-        <v>0.07659457225513155</v>
+        <v>0.02079309169412569</v>
       </c>
       <c r="K38" s="4">
-        <v>0.7675350701402806</v>
+        <v>0.3707414829659318</v>
       </c>
       <c r="L38" s="4">
-        <v>0.7990981963927856</v>
+        <v>0.7915831663326653</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2036,37 +2036,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="2">
-        <v>324.48</v>
+        <v>66.44</v>
       </c>
       <c r="C39" s="3">
-        <v>616</v>
+        <v>3010</v>
       </c>
       <c r="D39" s="4">
-        <v>0.1355784844219199</v>
+        <v>-0.1451282111611747</v>
       </c>
       <c r="E39" s="4">
-        <v>0.7555110220440882</v>
+        <v>0.376753507014028</v>
       </c>
       <c r="F39" s="4">
-        <v>0.1799214496498631</v>
+        <v>0.2125751833695499</v>
       </c>
       <c r="G39" s="4">
-        <v>0.901803607214429</v>
+        <v>0.9278557114228456</v>
       </c>
       <c r="H39" s="4">
-        <v>0.1900660628230668</v>
+        <v>0.2098072077871629</v>
       </c>
       <c r="I39" s="4">
         <v>0.9539078156312626</v>
       </c>
       <c r="J39" s="4">
-        <v>0.04775545532412551</v>
+        <v>0.1141396933560477</v>
       </c>
       <c r="K39" s="4">
-        <v>0.5831663326653307</v>
+        <v>0.905811623246493</v>
       </c>
       <c r="L39" s="4">
-        <v>0.7985971943887776</v>
+        <v>0.7910821643286573</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2074,37 +2074,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="2">
-        <v>235.12</v>
+        <v>141.93</v>
       </c>
       <c r="C40" s="3">
-        <v>850</v>
+        <v>1409</v>
       </c>
       <c r="D40" s="4">
-        <v>0.1964001899407621</v>
+        <v>0.7391957281443451</v>
       </c>
       <c r="E40" s="4">
-        <v>0.8176352705410822</v>
+        <v>0.9799599198396794</v>
       </c>
       <c r="F40" s="4">
-        <v>0.08447616486652021</v>
+        <v>0.07395048684640582</v>
       </c>
       <c r="G40" s="4">
-        <v>0.7595190380761524</v>
+        <v>0.7334669338677355</v>
       </c>
       <c r="H40" s="4">
-        <v>0.2184989435829221</v>
+        <v>0.1367860389897737</v>
       </c>
       <c r="I40" s="4">
-        <v>0.9639278557114228</v>
+        <v>0.8276553106212425</v>
       </c>
       <c r="J40" s="4">
-        <v>0.05908634995896778</v>
+        <v>0.05684793178248171</v>
       </c>
       <c r="K40" s="4">
-        <v>0.6472945891783567</v>
+        <v>0.6172344689378757</v>
       </c>
       <c r="L40" s="4">
-        <v>0.7970941883767535</v>
+        <v>0.7895791583166333</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2112,37 +2112,37 @@
         <v>51</v>
       </c>
       <c r="B41" s="2">
-        <v>76.06999999999999</v>
+        <v>96.09</v>
       </c>
       <c r="C41" s="3">
-        <v>2629</v>
+        <v>2081</v>
       </c>
       <c r="D41" s="4">
-        <v>0.2972885931793421</v>
+        <v>0.797571004340212</v>
       </c>
       <c r="E41" s="4">
-        <v>0.8917835671342685</v>
+        <v>0.9839679358717436</v>
       </c>
       <c r="F41" s="4">
-        <v>0.1348412600888931</v>
+        <v>0.4225820398829154</v>
       </c>
       <c r="G41" s="4">
-        <v>0.8517034068136273</v>
+        <v>0.9919839679358717</v>
       </c>
       <c r="H41" s="4">
-        <v>0.1608460855742686</v>
+        <v>0.1675855596757023</v>
       </c>
       <c r="I41" s="4">
-        <v>0.8997995991983969</v>
+        <v>0.8937875751503006</v>
       </c>
       <c r="J41" s="4">
-        <v>0.04244526577329944</v>
+        <v>0.008794232897610055</v>
       </c>
       <c r="K41" s="4">
-        <v>0.5410821643286573</v>
+        <v>0.2845691382765531</v>
       </c>
       <c r="L41" s="4">
-        <v>0.7960921843687375</v>
+        <v>0.7885771543086173</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2150,37 +2150,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>332.8</v>
+        <v>80.17</v>
       </c>
       <c r="C42" s="3">
-        <v>600</v>
+        <v>2494</v>
       </c>
       <c r="D42" s="4">
-        <v>0.2620795592499456</v>
+        <v>0.7152004047567644</v>
       </c>
       <c r="E42" s="4">
-        <v>0.8757515030060121</v>
+        <v>0.9719438877755512</v>
       </c>
       <c r="F42" s="4">
-        <v>0.1686641494856158</v>
+        <v>0.3859201787511037</v>
       </c>
       <c r="G42" s="4">
-        <v>0.8897795591182366</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="H42" s="4">
-        <v>0.2121667452950922</v>
+        <v>0.1368827008805962</v>
       </c>
       <c r="I42" s="4">
-        <v>0.9599198396793588</v>
+        <v>0.8296593186372746</v>
       </c>
       <c r="J42" s="4">
-        <v>0.02855510726016663</v>
+        <v>0.01957479906663218</v>
       </c>
       <c r="K42" s="4">
-        <v>0.4569138276553107</v>
+        <v>0.3627254509018036</v>
       </c>
       <c r="L42" s="4">
-        <v>0.7955911823647296</v>
+        <v>0.7875751503006012</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2188,37 +2188,37 @@
         <v>53</v>
       </c>
       <c r="B43" s="2">
-        <v>130.55</v>
+        <v>163.45</v>
       </c>
       <c r="C43" s="3">
-        <v>1531</v>
+        <v>1223</v>
       </c>
       <c r="D43" s="4">
-        <v>0.04360124459530446</v>
+        <v>-0.009907640227974636</v>
       </c>
       <c r="E43" s="4">
-        <v>0.6613226452905812</v>
+        <v>0.5871743486973948</v>
       </c>
       <c r="F43" s="4">
-        <v>0.03544554709501124</v>
+        <v>0.1720308551669105</v>
       </c>
       <c r="G43" s="4">
-        <v>0.6452905811623246</v>
+        <v>0.8937875751503006</v>
       </c>
       <c r="H43" s="4">
-        <v>0.2751477040330137</v>
+        <v>0.1583011583011584</v>
       </c>
       <c r="I43" s="4">
-        <v>0.9839679358717436</v>
+        <v>0.8737474949899799</v>
       </c>
       <c r="J43" s="4">
-        <v>0.1034865834900016</v>
+        <v>0.0845392129649758</v>
       </c>
       <c r="K43" s="4">
-        <v>0.8897795591182366</v>
+        <v>0.7835671342685372</v>
       </c>
       <c r="L43" s="4">
-        <v>0.7950901803607215</v>
+        <v>0.7845691382765532</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2226,37 +2226,37 @@
         <v>54</v>
       </c>
       <c r="B44" s="2">
-        <v>167.9</v>
+        <v>63.11</v>
       </c>
       <c r="C44" s="3">
-        <v>1191</v>
+        <v>3169</v>
       </c>
       <c r="D44" s="4">
-        <v>0.4122880976478478</v>
+        <v>0.1446307243180003</v>
       </c>
       <c r="E44" s="4">
-        <v>0.9338677354709419</v>
+        <v>0.7775551102204409</v>
       </c>
       <c r="F44" s="4">
-        <v>0.0756984929796789</v>
+        <v>0.05402386993510122</v>
       </c>
       <c r="G44" s="4">
-        <v>0.7414829659318637</v>
+        <v>0.685370741482966</v>
       </c>
       <c r="H44" s="4">
-        <v>0.1506286230312941</v>
+        <v>0.1705465789518805</v>
       </c>
       <c r="I44" s="4">
-        <v>0.8757515030060121</v>
+        <v>0.8997995991983969</v>
       </c>
       <c r="J44" s="4">
-        <v>0.05586876581403</v>
+        <v>0.08169014084507054</v>
       </c>
       <c r="K44" s="4">
-        <v>0.6292585170340681</v>
+        <v>0.7695390781563127</v>
       </c>
       <c r="L44" s="4">
-        <v>0.7950901803607214</v>
+        <v>0.7830661322645291</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2264,37 +2264,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>331.97</v>
+        <v>331.95</v>
       </c>
       <c r="C45" s="3">
         <v>602</v>
       </c>
       <c r="D45" s="4">
-        <v>0.06951973274991685</v>
+        <v>0.1235643805714222</v>
       </c>
       <c r="E45" s="4">
-        <v>0.6793587174348698</v>
+        <v>0.7535070140280561</v>
       </c>
       <c r="F45" s="4">
-        <v>0.03251678795248281</v>
+        <v>0.1753212954179204</v>
       </c>
       <c r="G45" s="4">
-        <v>0.6332665330661323</v>
+        <v>0.8997995991983969</v>
       </c>
       <c r="H45" s="4">
-        <v>0.1846379434937875</v>
+        <v>0.2016028778033419</v>
       </c>
       <c r="I45" s="4">
-        <v>0.9438877755511023</v>
+        <v>0.9458917835671343</v>
       </c>
       <c r="J45" s="4">
-        <v>0.1189529489728296</v>
+        <v>0.04367057603552516</v>
       </c>
       <c r="K45" s="4">
-        <v>0.9198396793587175</v>
+        <v>0.5190380761523046</v>
       </c>
       <c r="L45" s="4">
-        <v>0.7940881763527055</v>
+        <v>0.7795591182364729</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2302,37 +2302,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>146.99</v>
+        <v>353.03</v>
       </c>
       <c r="C46" s="3">
-        <v>1360</v>
+        <v>566</v>
       </c>
       <c r="D46" s="4">
-        <v>0.3165656315061929</v>
+        <v>-0.04002576886448928</v>
       </c>
       <c r="E46" s="4">
-        <v>0.901803607214429</v>
+        <v>0.5390781563126253</v>
       </c>
       <c r="F46" s="4">
-        <v>0.08111475073464214</v>
+        <v>0.1521885295501917</v>
       </c>
       <c r="G46" s="4">
-        <v>0.7535070140280561</v>
+        <v>0.8697394789579158</v>
       </c>
       <c r="H46" s="4">
-        <v>0.05489410659342786</v>
+        <v>0.1377684825548584</v>
       </c>
       <c r="I46" s="4">
-        <v>0.6352705410821643</v>
+        <v>0.8376753507014029</v>
       </c>
       <c r="J46" s="4">
-        <v>0.1009701492537314</v>
+        <v>0.1070448011886691</v>
       </c>
       <c r="K46" s="4">
-        <v>0.8777555110220442</v>
+        <v>0.8697394789579158</v>
       </c>
       <c r="L46" s="4">
-        <v>0.7920841683366734</v>
+        <v>0.779058116232465</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2340,37 +2340,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>449.88</v>
+        <v>240.6</v>
       </c>
       <c r="C47" s="3">
-        <v>444</v>
+        <v>831</v>
       </c>
       <c r="D47" s="4">
-        <v>0.1444447225489951</v>
+        <v>0.1461859056224832</v>
       </c>
       <c r="E47" s="4">
-        <v>0.7675350701402806</v>
+        <v>0.7795591182364729</v>
       </c>
       <c r="F47" s="4">
-        <v>0.07565634704055713</v>
+        <v>0.0871719348005926</v>
       </c>
       <c r="G47" s="4">
-        <v>0.7394789579158316</v>
+        <v>0.7715430861723448</v>
       </c>
       <c r="H47" s="4">
-        <v>0.1112353269983231</v>
+        <v>0.08772815436844428</v>
       </c>
       <c r="I47" s="4">
-        <v>0.7855711422845691</v>
+        <v>0.7194388777555111</v>
       </c>
       <c r="J47" s="4">
-        <v>0.09876483875618793</v>
+        <v>0.09699292398744408</v>
       </c>
       <c r="K47" s="4">
-        <v>0.8697394789579158</v>
+        <v>0.8336673346693386</v>
       </c>
       <c r="L47" s="4">
-        <v>0.7905811623246493</v>
+        <v>0.7760521042084169</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2378,37 +2378,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="2">
-        <v>89.84</v>
+        <v>112.35</v>
       </c>
       <c r="C48" s="3">
-        <v>2226</v>
+        <v>1780</v>
       </c>
       <c r="D48" s="4">
-        <v>0.3095736061099785</v>
+        <v>-0.1008933787850769</v>
       </c>
       <c r="E48" s="4">
-        <v>0.8937875751503006</v>
+        <v>0.4589178356713427</v>
       </c>
       <c r="F48" s="4">
-        <v>0.2491943157054726</v>
+        <v>0.2866540671055436</v>
       </c>
       <c r="G48" s="4">
-        <v>0.9498997995991983</v>
+        <v>0.9699398797595191</v>
       </c>
       <c r="H48" s="4">
-        <v>0.178913329989085</v>
+        <v>0.2008310082805758</v>
       </c>
       <c r="I48" s="4">
-        <v>0.9338677354709419</v>
+        <v>0.9438877755511023</v>
       </c>
       <c r="J48" s="4">
-        <v>0.01738438813771159</v>
+        <v>0.07465360808004928</v>
       </c>
       <c r="K48" s="4">
-        <v>0.3707414829659318</v>
+        <v>0.7254509018036072</v>
       </c>
       <c r="L48" s="4">
-        <v>0.7870741482965932</v>
+        <v>0.7745490981963928</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2416,37 +2416,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>117.3</v>
+        <v>102.86</v>
       </c>
       <c r="C49" s="3">
-        <v>1705</v>
+        <v>1944</v>
       </c>
       <c r="D49" s="4">
-        <v>0.3143598310448328</v>
+        <v>0.1489925158318943</v>
       </c>
       <c r="E49" s="4">
-        <v>0.8977955911823647</v>
+        <v>0.7815631262525051</v>
       </c>
       <c r="F49" s="4">
-        <v>0.1886326067932098</v>
+        <v>0.1128582580573214</v>
       </c>
       <c r="G49" s="4">
-        <v>0.9098196392785571</v>
+        <v>0.8276553106212425</v>
       </c>
       <c r="H49" s="4">
-        <v>0.1781761958290553</v>
+        <v>0.1264251044135907</v>
       </c>
       <c r="I49" s="4">
-        <v>0.9318637274549099</v>
+        <v>0.8036072144288577</v>
       </c>
       <c r="J49" s="4">
-        <v>0.02128220912848477</v>
+        <v>0.06681633525764386</v>
       </c>
       <c r="K49" s="4">
-        <v>0.4048096192384769</v>
+        <v>0.6753507014028056</v>
       </c>
       <c r="L49" s="4">
-        <v>0.7860721442885772</v>
+        <v>0.7720440881763527</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2454,37 +2454,37 @@
         <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>239.18</v>
+        <v>149.95</v>
       </c>
       <c r="C50" s="3">
-        <v>836</v>
+        <v>1333</v>
       </c>
       <c r="D50" s="4">
-        <v>0.152259123881491</v>
+        <v>0.3341029906815189</v>
       </c>
       <c r="E50" s="4">
-        <v>0.7775551102204409</v>
+        <v>0.9098196392785571</v>
       </c>
       <c r="F50" s="4">
-        <v>0.08512649885001045</v>
+        <v>0.07715757615729024</v>
       </c>
       <c r="G50" s="4">
-        <v>0.7635270541082164</v>
+        <v>0.74749498997996</v>
       </c>
       <c r="H50" s="4">
-        <v>0.09144890722524268</v>
+        <v>0.05818696484132602</v>
       </c>
       <c r="I50" s="4">
-        <v>0.7434869739478959</v>
+        <v>0.593186372745491</v>
       </c>
       <c r="J50" s="4">
-        <v>0.09492901055072545</v>
+        <v>0.09694029850746276</v>
       </c>
       <c r="K50" s="4">
-        <v>0.8537074148296594</v>
+        <v>0.8316633266533066</v>
       </c>
       <c r="L50" s="4">
-        <v>0.7845691382765532</v>
+        <v>0.7705410821643287</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2492,37 +2492,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>1412.21</v>
+        <v>95.77</v>
       </c>
       <c r="C51" s="3">
-        <v>141</v>
+        <v>2088</v>
       </c>
       <c r="D51" s="4">
-        <v>-0.03792469849330171</v>
+        <v>0.0683646917420655</v>
       </c>
       <c r="E51" s="4">
-        <v>0.5470941883767535</v>
+        <v>0.691382765531062</v>
       </c>
       <c r="F51" s="4">
-        <v>0.08546422217531591</v>
+        <v>0.08558273381294956</v>
       </c>
       <c r="G51" s="4">
-        <v>0.7675350701402806</v>
+        <v>0.7695390781563127</v>
       </c>
       <c r="H51" s="4">
-        <v>0.1501545638264732</v>
+        <v>0.1247452298804652</v>
       </c>
       <c r="I51" s="4">
-        <v>0.8737474949899799</v>
+        <v>0.7995991983967936</v>
       </c>
       <c r="J51" s="4">
-        <v>0.1386580206397534</v>
+        <v>0.09154334576380264</v>
       </c>
       <c r="K51" s="4">
-        <v>0.9438877755511023</v>
+        <v>0.8176352705410822</v>
       </c>
       <c r="L51" s="4">
-        <v>0.783066132264529</v>
+        <v>0.7695390781563126</v>
       </c>
     </row>
   </sheetData>

--- a/momentum_strategy.xlsx
+++ b/momentum_strategy.xlsx
@@ -58,148 +58,148 @@
     <t>LVS</t>
   </si>
   <si>
+    <t>GILD</t>
+  </si>
+  <si>
+    <t>ROST</t>
+  </si>
+  <si>
+    <t>APD</t>
+  </si>
+  <si>
+    <t>WYNN</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>TJX</t>
+  </si>
+  <si>
+    <t>BIIB</t>
+  </si>
+  <si>
+    <t>PCAR</t>
+  </si>
+  <si>
+    <t>ANET</t>
+  </si>
+  <si>
+    <t>HPE</t>
+  </si>
+  <si>
     <t>MPC</t>
   </si>
   <si>
-    <t>ROST</t>
-  </si>
-  <si>
-    <t>GILD</t>
-  </si>
-  <si>
-    <t>TJX</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>MRK</t>
-  </si>
-  <si>
-    <t>AFL</t>
-  </si>
-  <si>
-    <t>PCAR</t>
-  </si>
-  <si>
-    <t>APD</t>
-  </si>
-  <si>
-    <t>WYNN</t>
-  </si>
-  <si>
-    <t>IT</t>
+    <t>NUE</t>
+  </si>
+  <si>
+    <t>SBUX</t>
+  </si>
+  <si>
+    <t>AES</t>
+  </si>
+  <si>
+    <t>ABBV</t>
+  </si>
+  <si>
+    <t>ON</t>
   </si>
   <si>
     <t>RL</t>
   </si>
   <si>
+    <t>IPG</t>
+  </si>
+  <si>
     <t>ACGL</t>
   </si>
   <si>
-    <t>SBUX</t>
-  </si>
-  <si>
-    <t>IPG</t>
-  </si>
-  <si>
     <t>CAT</t>
   </si>
   <si>
-    <t>AES</t>
+    <t>PCG</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>AIG</t>
+  </si>
+  <si>
+    <t>FMC</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>FCX</t>
+  </si>
+  <si>
+    <t>URI</t>
+  </si>
+  <si>
+    <t>AMP</t>
+  </si>
+  <si>
+    <t>CAH</t>
+  </si>
+  <si>
+    <t>JCI</t>
   </si>
   <si>
     <t>GS</t>
   </si>
   <si>
-    <t>ABBV</t>
-  </si>
-  <si>
-    <t>PSX</t>
+    <t>HCA</t>
+  </si>
+  <si>
+    <t>MNST</t>
   </si>
   <si>
     <t>UHS</t>
   </si>
   <si>
-    <t>RE</t>
-  </si>
-  <si>
-    <t>ANET</t>
-  </si>
-  <si>
-    <t>BIIB</t>
+    <t>MTD</t>
+  </si>
+  <si>
+    <t>MCHP</t>
+  </si>
+  <si>
+    <t>ORLY</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>GL</t>
   </si>
   <si>
     <t>OMC</t>
   </si>
   <si>
-    <t>GL</t>
-  </si>
-  <si>
-    <t>WMT</t>
-  </si>
-  <si>
-    <t>AMGN</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>MET</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>VLO</t>
-  </si>
-  <si>
-    <t>ORLY</t>
+    <t>XYL</t>
+  </si>
+  <si>
+    <t>EMR</t>
   </si>
   <si>
     <t>IBM</t>
   </si>
   <si>
-    <t>PFG</t>
-  </si>
-  <si>
-    <t>JCI</t>
-  </si>
-  <si>
-    <t>EOG</t>
-  </si>
-  <si>
     <t>CEG</t>
-  </si>
-  <si>
-    <t>CAH</t>
-  </si>
-  <si>
-    <t>ETN</t>
-  </si>
-  <si>
-    <t>AIG</t>
-  </si>
-  <si>
-    <t>AMP</t>
-  </si>
-  <si>
-    <t>URI</t>
-  </si>
-  <si>
-    <t>SNA</t>
-  </si>
-  <si>
-    <t>XYL</t>
-  </si>
-  <si>
-    <t>MNST</t>
-  </si>
-  <si>
-    <t>NUE</t>
-  </si>
-  <si>
-    <t>EMR</t>
   </si>
 </sst>
 </file>
@@ -630,37 +630,37 @@
         <v>12</v>
       </c>
       <c r="B2" s="2">
-        <v>377.74</v>
+        <v>377.44</v>
       </c>
       <c r="C2" s="3">
         <v>529</v>
       </c>
       <c r="D2" s="4">
-        <v>0.1824078716470292</v>
+        <v>0.2001715483829977</v>
       </c>
       <c r="E2" s="4">
-        <v>0.8096192384769538</v>
+        <v>0.7735470941883767</v>
       </c>
       <c r="F2" s="4">
-        <v>0.4167229856574304</v>
+        <v>0.4326507394766781</v>
       </c>
       <c r="G2" s="4">
-        <v>0.9899799599198397</v>
+        <v>0.9859719438877755</v>
       </c>
       <c r="H2" s="4">
-        <v>0.468324383220484</v>
+        <v>0.4570734341252702</v>
       </c>
       <c r="I2" s="4">
-        <v>0.9979959919839679</v>
+        <v>0.995991983967936</v>
       </c>
       <c r="J2" s="4">
-        <v>0.4621793381384174</v>
+        <v>0.4986908917803872</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <v>0.9493987975951903</v>
+        <v>0.938877755511022</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -668,37 +668,37 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>46.84</v>
+        <v>46.89</v>
       </c>
       <c r="C3" s="3">
-        <v>4269</v>
+        <v>4265</v>
       </c>
       <c r="D3" s="4">
-        <v>0.1986044015029522</v>
+        <v>0.3149915777653005</v>
       </c>
       <c r="E3" s="4">
-        <v>0.8236472945891784</v>
+        <v>0.8637274549098197</v>
       </c>
       <c r="F3" s="4">
-        <v>0.2900057770075102</v>
+        <v>0.3209249858996053</v>
       </c>
       <c r="G3" s="4">
-        <v>0.9719438877755512</v>
+        <v>0.9599198396793588</v>
       </c>
       <c r="H3" s="4">
-        <v>0.1786751121667984</v>
+        <v>0.2447515280361414</v>
       </c>
       <c r="I3" s="4">
-        <v>0.9178356713426854</v>
+        <v>0.9438877755511023</v>
       </c>
       <c r="J3" s="4">
-        <v>0.2040981396602857</v>
+        <v>0.2323072875559065</v>
       </c>
       <c r="K3" s="4">
-        <v>0.9799599198396794</v>
+        <v>0.9679358717434871</v>
       </c>
       <c r="L3" s="4">
-        <v>0.9233466933867736</v>
+        <v>0.9338677354709419</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -706,37 +706,37 @@
         <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>121.81</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="C4" s="3">
-        <v>1641</v>
+        <v>2275</v>
       </c>
       <c r="D4" s="4">
-        <v>1.050570894747768</v>
+        <v>0.3347963459133165</v>
       </c>
       <c r="E4" s="4">
-        <v>0.9939879759519039</v>
+        <v>0.8817635270541082</v>
       </c>
       <c r="F4" s="4">
-        <v>0.2242898632924244</v>
+        <v>0.3868318085499451</v>
       </c>
       <c r="G4" s="4">
-        <v>0.9338677354709419</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="H4" s="4">
-        <v>0.18326807006649</v>
+        <v>0.3994961622606095</v>
       </c>
       <c r="I4" s="4">
-        <v>0.9278557114228456</v>
+        <v>0.9919839679358717</v>
       </c>
       <c r="J4" s="4">
-        <v>0.0939782905514901</v>
+        <v>0.1194239102727506</v>
       </c>
       <c r="K4" s="4">
-        <v>0.8256513026052105</v>
+        <v>0.7995991983967936</v>
       </c>
       <c r="L4" s="4">
-        <v>0.9203406813627255</v>
+        <v>0.9138276553106213</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -744,37 +744,37 @@
         <v>15</v>
       </c>
       <c r="B5" s="2">
-        <v>117.67</v>
+        <v>117.98</v>
       </c>
       <c r="C5" s="3">
-        <v>1699</v>
+        <v>1695</v>
       </c>
       <c r="D5" s="4">
-        <v>0.06004373054793888</v>
+        <v>0.09319316083048124</v>
       </c>
       <c r="E5" s="4">
-        <v>0.6833667334669339</v>
+        <v>0.6673346693386774</v>
       </c>
       <c r="F5" s="4">
-        <v>0.3473991700325689</v>
+        <v>0.3941166783366328</v>
       </c>
       <c r="G5" s="4">
-        <v>0.9819639278557115</v>
+        <v>0.9839679358717436</v>
       </c>
       <c r="H5" s="4">
-        <v>0.3477521308539342</v>
+        <v>0.3687683062728138</v>
       </c>
       <c r="I5" s="4">
-        <v>0.9919839679358717</v>
+        <v>0.9879759519038076</v>
       </c>
       <c r="J5" s="4">
-        <v>0.2248557944415313</v>
+        <v>0.2297000731528896</v>
       </c>
       <c r="K5" s="4">
-        <v>0.9879759519038076</v>
+        <v>0.9659318637274549</v>
       </c>
       <c r="L5" s="4">
-        <v>0.9113226452905812</v>
+        <v>0.9013026052104208</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -782,37 +782,37 @@
         <v>16</v>
       </c>
       <c r="B6" s="2">
-        <v>87.83</v>
+        <v>312.04</v>
       </c>
       <c r="C6" s="3">
-        <v>2277</v>
+        <v>640</v>
       </c>
       <c r="D6" s="4">
-        <v>0.2716073912179615</v>
+        <v>0.106433588835209</v>
       </c>
       <c r="E6" s="4">
-        <v>0.8757515030060121</v>
+        <v>0.6813627254509018</v>
       </c>
       <c r="F6" s="4">
-        <v>0.3551908423484498</v>
+        <v>0.2773742167763682</v>
       </c>
       <c r="G6" s="4">
-        <v>0.9839679358717436</v>
+        <v>0.9519038076152304</v>
       </c>
       <c r="H6" s="4">
-        <v>0.3888326582963157</v>
+        <v>0.2372479609901497</v>
       </c>
       <c r="I6" s="4">
-        <v>0.9939879759519039</v>
+        <v>0.9378757515030059</v>
       </c>
       <c r="J6" s="4">
-        <v>0.08187208275514068</v>
+        <v>0.2386581469648563</v>
       </c>
       <c r="K6" s="4">
-        <v>0.7735470941883767</v>
+        <v>0.9719438877755512</v>
       </c>
       <c r="L6" s="4">
-        <v>0.9068136272545091</v>
+        <v>0.8857715430861723</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -820,37 +820,37 @@
         <v>17</v>
       </c>
       <c r="B7" s="2">
-        <v>80.05</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="C7" s="3">
-        <v>2498</v>
+        <v>2379</v>
       </c>
       <c r="D7" s="4">
-        <v>0.1546705386157783</v>
+        <v>0.03271201086285624</v>
       </c>
       <c r="E7" s="4">
-        <v>0.7875751503006012</v>
+        <v>0.5791583166332666</v>
       </c>
       <c r="F7" s="4">
-        <v>0.2520930697523305</v>
+        <v>0.265658093797277</v>
       </c>
       <c r="G7" s="4">
-        <v>0.9519038076152304</v>
+        <v>0.9478957915831664</v>
       </c>
       <c r="H7" s="4">
-        <v>0.2752249063387396</v>
+        <v>0.380755900313583</v>
       </c>
       <c r="I7" s="4">
-        <v>0.9819639278557115</v>
+        <v>0.9899799599198397</v>
       </c>
       <c r="J7" s="4">
-        <v>0.1102370056841475</v>
+        <v>0.3092331768388106</v>
       </c>
       <c r="K7" s="4">
-        <v>0.8917835671342685</v>
+        <v>0.995991983967936</v>
       </c>
       <c r="L7" s="4">
-        <v>0.9033066132264529</v>
+        <v>0.8782565130260521</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -858,37 +858,37 @@
         <v>18</v>
       </c>
       <c r="B8" s="2">
-        <v>441</v>
+        <v>356.27</v>
       </c>
       <c r="C8" s="3">
-        <v>453</v>
+        <v>561</v>
       </c>
       <c r="D8" s="4">
-        <v>0.2827904714473888</v>
+        <v>0.1220816653322658</v>
       </c>
       <c r="E8" s="4">
-        <v>0.8797595190380761</v>
+        <v>0.6933867735470942</v>
       </c>
       <c r="F8" s="4">
-        <v>0.2309435028280132</v>
+        <v>0.3352515243902441</v>
       </c>
       <c r="G8" s="4">
-        <v>0.9418837675350702</v>
+        <v>0.9699398797595191</v>
       </c>
       <c r="H8" s="4">
-        <v>0.162384880482362</v>
+        <v>0.2279896256834433</v>
       </c>
       <c r="I8" s="4">
-        <v>0.8817635270541082</v>
+        <v>0.9258517034068136</v>
       </c>
       <c r="J8" s="4">
-        <v>0.1111755071185587</v>
+        <v>0.160472972972973</v>
       </c>
       <c r="K8" s="4">
-        <v>0.8977955911823647</v>
+        <v>0.901803607214429</v>
       </c>
       <c r="L8" s="4">
-        <v>0.9003006012024048</v>
+        <v>0.872745490981964</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -896,37 +896,37 @@
         <v>19</v>
       </c>
       <c r="B9" s="2">
-        <v>110.12</v>
+        <v>71.91</v>
       </c>
       <c r="C9" s="3">
-        <v>1816</v>
+        <v>2781</v>
       </c>
       <c r="D9" s="4">
-        <v>0.5043143303769493</v>
+        <v>0.3631548326330891</v>
       </c>
       <c r="E9" s="4">
-        <v>0.9539078156312626</v>
+        <v>0.8997995991983969</v>
       </c>
       <c r="F9" s="4">
-        <v>0.1883899412683803</v>
+        <v>0.2022356602518462</v>
       </c>
       <c r="G9" s="4">
-        <v>0.9098196392785571</v>
+        <v>0.8877755511022045</v>
       </c>
       <c r="H9" s="4">
-        <v>0.252625461074123</v>
+        <v>0.2176232900712833</v>
       </c>
       <c r="I9" s="4">
-        <v>0.9759519038076152</v>
+        <v>0.905811623246493</v>
       </c>
       <c r="J9" s="4">
-        <v>0.08008335814230438</v>
+        <v>0.1112141014351704</v>
       </c>
       <c r="K9" s="4">
-        <v>0.7615230460921844</v>
+        <v>0.7675350701402806</v>
       </c>
       <c r="L9" s="4">
-        <v>0.9003006012024048</v>
+        <v>0.8652304609218437</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -934,37 +934,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="2">
-        <v>71.93000000000001</v>
+        <v>109.8</v>
       </c>
       <c r="C10" s="3">
-        <v>2780</v>
+        <v>1821</v>
       </c>
       <c r="D10" s="4">
-        <v>0.3056340466918903</v>
+        <v>0.5215997523876901</v>
       </c>
       <c r="E10" s="4">
-        <v>0.8917835671342685</v>
+        <v>0.9498997995991983</v>
       </c>
       <c r="F10" s="4">
-        <v>0.1878228052594004</v>
+        <v>0.2160847416261656</v>
       </c>
       <c r="G10" s="4">
-        <v>0.9078156312625251</v>
+        <v>0.9038076152304609</v>
       </c>
       <c r="H10" s="4">
-        <v>0.1722309599294809</v>
+        <v>0.3004650591539182</v>
       </c>
       <c r="I10" s="4">
-        <v>0.9038076152304609</v>
+        <v>0.9719438877755512</v>
       </c>
       <c r="J10" s="4">
-        <v>0.1004024044910328</v>
+        <v>0.08814229249011851</v>
       </c>
       <c r="K10" s="4">
-        <v>0.8577154308617234</v>
+        <v>0.6272545090180361</v>
       </c>
       <c r="L10" s="4">
-        <v>0.8902805611222445</v>
+        <v>0.8632264529058117</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -972,37 +972,37 @@
         <v>21</v>
       </c>
       <c r="B11" s="2">
-        <v>105.91</v>
+        <v>441.81</v>
       </c>
       <c r="C11" s="3">
-        <v>1888</v>
+        <v>452</v>
       </c>
       <c r="D11" s="4">
-        <v>0.2499985013445936</v>
+        <v>0.292344805799551</v>
       </c>
       <c r="E11" s="4">
-        <v>0.8637274549098197</v>
+        <v>0.8557114228456913</v>
       </c>
       <c r="F11" s="4">
-        <v>0.2258224567946378</v>
+        <v>0.2411773679046732</v>
       </c>
       <c r="G11" s="4">
-        <v>0.935871743486974</v>
+        <v>0.9258517034068136</v>
       </c>
       <c r="H11" s="4">
-        <v>0.1772875863120276</v>
+        <v>0.2113494377800387</v>
       </c>
       <c r="I11" s="4">
-        <v>0.9138276553106214</v>
+        <v>0.8917835671342685</v>
       </c>
       <c r="J11" s="4">
-        <v>0.08657589981741043</v>
+        <v>0.114142792178263</v>
       </c>
       <c r="K11" s="4">
-        <v>0.7915831663326653</v>
+        <v>0.7755511022044088</v>
       </c>
       <c r="L11" s="4">
-        <v>0.8762525050100201</v>
+        <v>0.8622244488977956</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1010,37 +1010,37 @@
         <v>22</v>
       </c>
       <c r="B12" s="2">
-        <v>310.16</v>
+        <v>79.73999999999999</v>
       </c>
       <c r="C12" s="3">
-        <v>644</v>
+        <v>2508</v>
       </c>
       <c r="D12" s="4">
-        <v>0.06349993471466098</v>
+        <v>0.1741875297030573</v>
       </c>
       <c r="E12" s="4">
-        <v>0.6893787575150302</v>
+        <v>0.7454909819639279</v>
       </c>
       <c r="F12" s="4">
-        <v>0.2222157058237053</v>
+        <v>0.2704372970553788</v>
       </c>
       <c r="G12" s="4">
-        <v>0.9318637274549099</v>
+        <v>0.9498997995991983</v>
       </c>
       <c r="H12" s="4">
-        <v>0.1672693321981771</v>
+        <v>0.2892014681274933</v>
       </c>
       <c r="I12" s="4">
-        <v>0.8917835671342685</v>
+        <v>0.9679358717434871</v>
       </c>
       <c r="J12" s="4">
-        <v>0.1876277314887597</v>
+        <v>0.1148636885902301</v>
       </c>
       <c r="K12" s="4">
-        <v>0.9759519038076152</v>
+        <v>0.7815631262525051</v>
       </c>
       <c r="L12" s="4">
-        <v>0.8722444889779559</v>
+        <v>0.8612224448897796</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1048,37 +1048,37 @@
         <v>23</v>
       </c>
       <c r="B13" s="2">
-        <v>83.65000000000001</v>
+        <v>301.85</v>
       </c>
       <c r="C13" s="3">
-        <v>2390</v>
+        <v>662</v>
       </c>
       <c r="D13" s="4">
-        <v>-0.03265060240963846</v>
+        <v>0.2945193857639772</v>
       </c>
       <c r="E13" s="4">
-        <v>0.5551102204408818</v>
+        <v>0.8577154308617234</v>
       </c>
       <c r="F13" s="4">
-        <v>0.2303095311063439</v>
+        <v>0.5258500000000002</v>
       </c>
       <c r="G13" s="4">
-        <v>0.939879759519038</v>
+        <v>0.9899799599198397</v>
       </c>
       <c r="H13" s="4">
-        <v>0.2864925492709502</v>
+        <v>0.5619305967857509</v>
       </c>
       <c r="I13" s="4">
-        <v>0.9859719438877755</v>
+        <v>1</v>
       </c>
       <c r="J13" s="4">
-        <v>0.377186963979417</v>
+        <v>0.07666525543324876</v>
       </c>
       <c r="K13" s="4">
-        <v>0.9979959919839679</v>
+        <v>0.5470941883767535</v>
       </c>
       <c r="L13" s="4">
-        <v>0.8697394789579158</v>
+        <v>0.8486973947895792</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1086,37 +1086,37 @@
         <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>350.37</v>
+        <v>105.95</v>
       </c>
       <c r="C14" s="3">
-        <v>570</v>
+        <v>1887</v>
       </c>
       <c r="D14" s="4">
-        <v>0.0464</v>
+        <v>0.3108776481189011</v>
       </c>
       <c r="E14" s="4">
-        <v>0.6653306613226454</v>
+        <v>0.8617234468937877</v>
       </c>
       <c r="F14" s="4">
-        <v>0.2756667541918303</v>
+        <v>0.2284448011765976</v>
       </c>
       <c r="G14" s="4">
-        <v>0.9639278557114228</v>
+        <v>0.9118236472945892</v>
       </c>
       <c r="H14" s="4">
-        <v>0.1690615331729117</v>
+        <v>0.2146408317038344</v>
       </c>
       <c r="I14" s="4">
         <v>0.8957915831663327</v>
       </c>
       <c r="J14" s="4">
-        <v>0.1260554286281912</v>
+        <v>0.09773022432419264</v>
       </c>
       <c r="K14" s="4">
-        <v>0.9238476953907816</v>
+        <v>0.691382765531062</v>
       </c>
       <c r="L14" s="4">
-        <v>0.8622244488977956</v>
+        <v>0.8401803607214429</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1124,37 +1124,37 @@
         <v>25</v>
       </c>
       <c r="B15" s="2">
-        <v>113.12</v>
+        <v>139.78</v>
       </c>
       <c r="C15" s="3">
-        <v>1768</v>
+        <v>1430</v>
       </c>
       <c r="D15" s="4">
-        <v>-0.02678206604509492</v>
+        <v>0.1228437852651942</v>
       </c>
       <c r="E15" s="4">
-        <v>0.5671342685370742</v>
+        <v>0.6973947895791583</v>
       </c>
       <c r="F15" s="4">
-        <v>0.1586553591667059</v>
+        <v>0.3619475948377005</v>
       </c>
       <c r="G15" s="4">
-        <v>0.8797595190380761</v>
+        <v>0.9799599198396794</v>
       </c>
       <c r="H15" s="4">
-        <v>0.2199889328183087</v>
+        <v>0.1619953286619955</v>
       </c>
       <c r="I15" s="4">
-        <v>0.9599198396793588</v>
+        <v>0.7895791583166333</v>
       </c>
       <c r="J15" s="4">
-        <v>0.2077615780445969</v>
+        <v>0.152573225219262</v>
       </c>
       <c r="K15" s="4">
-        <v>0.9819639278557115</v>
+        <v>0.8897795591182366</v>
       </c>
       <c r="L15" s="4">
-        <v>0.8471943887775552</v>
+        <v>0.8391783567134269</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1162,37 +1162,37 @@
         <v>26</v>
       </c>
       <c r="B16" s="2">
-        <v>59.92</v>
+        <v>16.82</v>
       </c>
       <c r="C16" s="3">
-        <v>3337</v>
+        <v>11890</v>
       </c>
       <c r="D16" s="4">
-        <v>0.413371675053918</v>
+        <v>0.2077503310876952</v>
       </c>
       <c r="E16" s="4">
-        <v>0.9298597194388778</v>
+        <v>0.7795591182364729</v>
       </c>
       <c r="F16" s="4">
-        <v>0.2427307206068268</v>
+        <v>0.09433593113118333</v>
       </c>
       <c r="G16" s="4">
+        <v>0.6993987975951904</v>
+      </c>
+      <c r="H16" s="4">
+        <v>0.2450103132558727</v>
+      </c>
+      <c r="I16" s="4">
         <v>0.9458917835671343</v>
       </c>
-      <c r="H16" s="4">
-        <v>0.2755190311418685</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.9839679358717436</v>
-      </c>
       <c r="J16" s="4">
-        <v>0.04057868736767811</v>
+        <v>0.1758934828311143</v>
       </c>
       <c r="K16" s="4">
-        <v>0.498997995991984</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="L16" s="4">
-        <v>0.8396793587174349</v>
+        <v>0.8391783567134269</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1200,37 +1200,37 @@
         <v>27</v>
       </c>
       <c r="B17" s="2">
-        <v>102.23</v>
+        <v>120.23</v>
       </c>
       <c r="C17" s="3">
-        <v>1956</v>
+        <v>1663</v>
       </c>
       <c r="D17" s="4">
-        <v>-0.08252103059689142</v>
+        <v>1.053920254408906</v>
       </c>
       <c r="E17" s="4">
-        <v>0.4769539078156313</v>
+        <v>0.9939879759519039</v>
       </c>
       <c r="F17" s="4">
-        <v>0.3084724452891148</v>
+        <v>0.2115081839710138</v>
       </c>
       <c r="G17" s="4">
-        <v>0.9739478957915831</v>
+        <v>0.8937875751503006</v>
       </c>
       <c r="H17" s="4">
-        <v>0.1864518883296955</v>
+        <v>0.2166023624917728</v>
       </c>
       <c r="I17" s="4">
-        <v>0.9318637274549099</v>
+        <v>0.8997995991983969</v>
       </c>
       <c r="J17" s="4">
-        <v>0.1458582554987491</v>
+        <v>0.07879517858882501</v>
       </c>
       <c r="K17" s="4">
-        <v>0.9498997995991983</v>
+        <v>0.5591182364729459</v>
       </c>
       <c r="L17" s="4">
-        <v>0.8331663326653307</v>
+        <v>0.8366733466933869</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1238,37 +1238,37 @@
         <v>28</v>
       </c>
       <c r="B18" s="2">
-        <v>34.36</v>
+        <v>149.25</v>
       </c>
       <c r="C18" s="3">
-        <v>5820</v>
+        <v>1340</v>
       </c>
       <c r="D18" s="4">
-        <v>0.04463206481529425</v>
+        <v>0.4353828820420631</v>
       </c>
       <c r="E18" s="4">
-        <v>0.6613226452905812</v>
+        <v>0.9198396793587175</v>
       </c>
       <c r="F18" s="4">
-        <v>0.08375317845128483</v>
+        <v>0.1426503086184561</v>
       </c>
       <c r="G18" s="4">
-        <v>0.7655310621242485</v>
+        <v>0.8156312625250501</v>
       </c>
       <c r="H18" s="4">
-        <v>0.223635313166473</v>
+        <v>0.1332521654223187</v>
       </c>
       <c r="I18" s="4">
-        <v>0.9639278557114228</v>
+        <v>0.7114228456913828</v>
       </c>
       <c r="J18" s="4">
-        <v>0.1345899470899472</v>
+        <v>0.1413457147206576</v>
       </c>
       <c r="K18" s="4">
-        <v>0.9378757515030059</v>
+        <v>0.8697394789579158</v>
       </c>
       <c r="L18" s="4">
-        <v>0.8321643286573146</v>
+        <v>0.8291583166332666</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1276,37 +1276,37 @@
         <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>236.41</v>
+        <v>103.37</v>
       </c>
       <c r="C19" s="3">
-        <v>845</v>
+        <v>1934</v>
       </c>
       <c r="D19" s="4">
-        <v>0.2282912375065562</v>
+        <v>-0.04015297444571653</v>
       </c>
       <c r="E19" s="4">
-        <v>0.8476953907815631</v>
+        <v>0.4609218436873748</v>
       </c>
       <c r="F19" s="4">
-        <v>0.097641135959605</v>
+        <v>0.3245153271825019</v>
       </c>
       <c r="G19" s="4">
-        <v>0.8016032064128257</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="H19" s="4">
-        <v>0.234191384701633</v>
+        <v>0.2297532912746478</v>
       </c>
       <c r="I19" s="4">
-        <v>0.9679358717434871</v>
+        <v>0.9278557114228456</v>
       </c>
       <c r="J19" s="4">
-        <v>0.07194310203337295</v>
+        <v>0.1939642885514947</v>
       </c>
       <c r="K19" s="4">
-        <v>0.7074148296593187</v>
+        <v>0.9539078156312626</v>
       </c>
       <c r="L19" s="4">
-        <v>0.8311623246492986</v>
+        <v>0.8261523046092184</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1314,37 +1314,37 @@
         <v>30</v>
       </c>
       <c r="B20" s="2">
-        <v>28.92</v>
+        <v>28.72</v>
       </c>
       <c r="C20" s="3">
-        <v>6915</v>
+        <v>6963</v>
       </c>
       <c r="D20" s="4">
-        <v>0.2301504387797744</v>
+        <v>0.2718013667906807</v>
       </c>
       <c r="E20" s="4">
-        <v>0.8496993987975953</v>
+        <v>0.841683366733467</v>
       </c>
       <c r="F20" s="4">
-        <v>0.2765380793206252</v>
+        <v>0.3294717969935181</v>
       </c>
       <c r="G20" s="4">
-        <v>0.9659318637274549</v>
+        <v>0.9639278557114228</v>
       </c>
       <c r="H20" s="4">
-        <v>0.1157656181523143</v>
+        <v>0.1431733733892009</v>
       </c>
       <c r="I20" s="4">
-        <v>0.7855711422845691</v>
+        <v>0.749498997995992</v>
       </c>
       <c r="J20" s="4">
-        <v>0.07444300813626348</v>
+        <v>0.1055045871559634</v>
       </c>
       <c r="K20" s="4">
-        <v>0.7234468937875752</v>
+        <v>0.7434869739478959</v>
       </c>
       <c r="L20" s="4">
-        <v>0.8311623246492986</v>
+        <v>0.8246492985971944</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1352,37 +1352,37 @@
         <v>31</v>
       </c>
       <c r="B21" s="2">
-        <v>386.15</v>
+        <v>161.63</v>
       </c>
       <c r="C21" s="3">
-        <v>517</v>
+        <v>1237</v>
       </c>
       <c r="D21" s="4">
-        <v>0.01137816913956291</v>
+        <v>0.4526348044738053</v>
       </c>
       <c r="E21" s="4">
-        <v>0.6232464929859719</v>
+        <v>0.9258517034068136</v>
       </c>
       <c r="F21" s="4">
-        <v>0.1765993760536837</v>
+        <v>0.1151732192376029</v>
       </c>
       <c r="G21" s="4">
-        <v>0.901803607214429</v>
+        <v>0.7615230460921844</v>
       </c>
       <c r="H21" s="4">
-        <v>0.1577833176129948</v>
+        <v>0.2109182483682128</v>
       </c>
       <c r="I21" s="4">
-        <v>0.8717434869739479</v>
+        <v>0.8897795591182366</v>
       </c>
       <c r="J21" s="4">
-        <v>0.1225498800538294</v>
+        <v>0.1009562841530054</v>
       </c>
       <c r="K21" s="4">
-        <v>0.9178356713426854</v>
+        <v>0.7194388777555111</v>
       </c>
       <c r="L21" s="4">
-        <v>0.8286573146292585</v>
+        <v>0.8241482965931863</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1390,37 +1390,37 @@
         <v>32</v>
       </c>
       <c r="B22" s="2">
-        <v>161.18</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C22" s="3">
-        <v>1240</v>
+        <v>2703</v>
       </c>
       <c r="D22" s="4">
-        <v>0.4061384788639253</v>
+        <v>0.2241575777307505</v>
       </c>
       <c r="E22" s="4">
-        <v>0.9278557114228456</v>
+        <v>0.7975951903807615</v>
       </c>
       <c r="F22" s="4">
-        <v>0.07536383596283125</v>
+        <v>0.2392880685563612</v>
       </c>
       <c r="G22" s="4">
-        <v>0.7414829659318637</v>
+        <v>0.9238476953907816</v>
       </c>
       <c r="H22" s="4">
-        <v>0.1775827545908608</v>
+        <v>0.09350007270612191</v>
       </c>
       <c r="I22" s="4">
-        <v>0.9158316633266533</v>
+        <v>0.5711422845691383</v>
       </c>
       <c r="J22" s="4">
-        <v>0.07174310683558005</v>
+        <v>0.2241575777307505</v>
       </c>
       <c r="K22" s="4">
-        <v>0.7054108216432866</v>
+        <v>0.9619238476953907</v>
       </c>
       <c r="L22" s="4">
-        <v>0.8226452905811623</v>
+        <v>0.8136272545090181</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1428,37 +1428,37 @@
         <v>33</v>
       </c>
       <c r="B23" s="2">
-        <v>108.44</v>
+        <v>113.88</v>
       </c>
       <c r="C23" s="3">
-        <v>1844</v>
+        <v>1756</v>
       </c>
       <c r="D23" s="4">
-        <v>0.6243620015264262</v>
+        <v>0.003128569300292927</v>
       </c>
       <c r="E23" s="4">
-        <v>0.9619238476953907</v>
+        <v>0.5390781563126253</v>
       </c>
       <c r="F23" s="4">
-        <v>0.09246064805764176</v>
+        <v>0.1378370032398983</v>
       </c>
       <c r="G23" s="4">
-        <v>0.7875751503006012</v>
+        <v>0.8056112224448898</v>
       </c>
       <c r="H23" s="4">
-        <v>0.1795026107738802</v>
+        <v>0.2491124698129314</v>
       </c>
       <c r="I23" s="4">
-        <v>0.9218436873747495</v>
+        <v>0.9478957915831664</v>
       </c>
       <c r="J23" s="4">
-        <v>0.05498773844204141</v>
+        <v>0.2204121264429821</v>
       </c>
       <c r="K23" s="4">
-        <v>0.6012024048096193</v>
+        <v>0.9599198396793588</v>
       </c>
       <c r="L23" s="4">
-        <v>0.8181362725450902</v>
+        <v>0.81312625250501</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1466,37 +1466,37 @@
         <v>34</v>
       </c>
       <c r="B24" s="2">
-        <v>130.85</v>
+        <v>34.46</v>
       </c>
       <c r="C24" s="3">
-        <v>1528</v>
+        <v>5803</v>
       </c>
       <c r="D24" s="4">
-        <v>0.08196137095404055</v>
+        <v>0.07287493638001497</v>
       </c>
       <c r="E24" s="4">
-        <v>0.7134268537074149</v>
+        <v>0.6392785571142285</v>
       </c>
       <c r="F24" s="4">
-        <v>0.04683200010263855</v>
+        <v>0.0962820214215292</v>
       </c>
       <c r="G24" s="4">
-        <v>0.6613226452905812</v>
+        <v>0.7054108216432866</v>
       </c>
       <c r="H24" s="4">
-        <v>0.2912063457525198</v>
+        <v>0.2537217584213904</v>
       </c>
       <c r="I24" s="4">
-        <v>0.9879759519038076</v>
+        <v>0.9519038076152304</v>
       </c>
       <c r="J24" s="4">
-        <v>0.1156212613228509</v>
+        <v>0.1632394661827734</v>
       </c>
       <c r="K24" s="4">
-        <v>0.9078156312625251</v>
+        <v>0.9118236472945892</v>
       </c>
       <c r="L24" s="4">
-        <v>0.8176352705410822</v>
+        <v>0.8021042084168337</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1504,37 +1504,37 @@
         <v>35</v>
       </c>
       <c r="B25" s="2">
-        <v>337.94</v>
+        <v>59.76</v>
       </c>
       <c r="C25" s="3">
-        <v>591</v>
+        <v>3346</v>
       </c>
       <c r="D25" s="4">
-        <v>0.2955667325869293</v>
+        <v>0.4836552748885585</v>
       </c>
       <c r="E25" s="4">
-        <v>0.8877755511022045</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="F25" s="4">
-        <v>0.1816595641636172</v>
+        <v>0.2623261694058154</v>
       </c>
       <c r="G25" s="4">
-        <v>0.9038076152304609</v>
+        <v>0.9458917835671343</v>
       </c>
       <c r="H25" s="4">
-        <v>0.2292036326513125</v>
+        <v>0.3103674540682415</v>
       </c>
       <c r="I25" s="4">
-        <v>0.9659318637274549</v>
+        <v>0.9739478957915831</v>
       </c>
       <c r="J25" s="4">
-        <v>0.0399925250537263</v>
+        <v>0.04191304347826086</v>
       </c>
       <c r="K25" s="4">
-        <v>0.4949899799599198</v>
+        <v>0.3346693386773547</v>
       </c>
       <c r="L25" s="4">
-        <v>0.81312625250501</v>
+        <v>0.7965931863727456</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1542,37 +1542,37 @@
         <v>36</v>
       </c>
       <c r="B26" s="2">
-        <v>139.3</v>
+        <v>235.69</v>
       </c>
       <c r="C26" s="3">
-        <v>1435</v>
+        <v>848</v>
       </c>
       <c r="D26" s="4">
-        <v>0.05616113744075846</v>
+        <v>0.2514464605784572</v>
       </c>
       <c r="E26" s="4">
-        <v>0.6773547094188378</v>
+        <v>0.8236472945891784</v>
       </c>
       <c r="F26" s="4">
-        <v>0.2629640124681214</v>
+        <v>0.1102595098345858</v>
       </c>
       <c r="G26" s="4">
-        <v>0.9599198396793588</v>
+        <v>0.7454909819639279</v>
       </c>
       <c r="H26" s="4">
-        <v>0.0997696989636454</v>
+        <v>0.2884621568401964</v>
       </c>
       <c r="I26" s="4">
-        <v>0.7535070140280561</v>
+        <v>0.9659318637274549</v>
       </c>
       <c r="J26" s="4">
-        <v>0.1007656211410226</v>
+        <v>0.09216483414949628</v>
       </c>
       <c r="K26" s="4">
-        <v>0.8597194388777555</v>
+        <v>0.6492985971943888</v>
       </c>
       <c r="L26" s="4">
-        <v>0.8126252505010021</v>
+        <v>0.7960921843687375</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1580,37 +1580,37 @@
         <v>37</v>
       </c>
       <c r="B27" s="2">
-        <v>305.13</v>
+        <v>15.62</v>
       </c>
       <c r="C27" s="3">
-        <v>655</v>
+        <v>12804</v>
       </c>
       <c r="D27" s="4">
-        <v>0.2342128668840795</v>
+        <v>0.3215488215488214</v>
       </c>
       <c r="E27" s="4">
-        <v>0.8537074148296594</v>
+        <v>0.8737474949899799</v>
       </c>
       <c r="F27" s="4">
-        <v>0.4132395732298741</v>
+        <v>0.2868852459016393</v>
       </c>
       <c r="G27" s="4">
-        <v>0.9879759519038076</v>
+        <v>0.9539078156312626</v>
       </c>
       <c r="H27" s="4">
-        <v>0.4784130688448074</v>
+        <v>0.2733171127331711</v>
       </c>
       <c r="I27" s="4">
-        <v>1</v>
+        <v>0.9639278557114228</v>
       </c>
       <c r="J27" s="4">
-        <v>0.02504484857012201</v>
+        <v>0.05157401205626244</v>
       </c>
       <c r="K27" s="4">
-        <v>0.4028056112224449</v>
+        <v>0.3907815631262526</v>
       </c>
       <c r="L27" s="4">
-        <v>0.811122244488978</v>
+        <v>0.7955911823647295</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1618,37 +1618,37 @@
         <v>38</v>
       </c>
       <c r="B28" s="2">
-        <v>79.76000000000001</v>
+        <v>156.12</v>
       </c>
       <c r="C28" s="3">
-        <v>2507</v>
+        <v>1281</v>
       </c>
       <c r="D28" s="4">
-        <v>0.2140101331927573</v>
+        <v>0.03361551343640135</v>
       </c>
       <c r="E28" s="4">
-        <v>0.8396793587174349</v>
+        <v>0.5811623246492986</v>
       </c>
       <c r="F28" s="4">
-        <v>0.07154567334183204</v>
+        <v>0.2192157464333335</v>
       </c>
       <c r="G28" s="4">
-        <v>0.7294589178356713</v>
+        <v>0.9098196392785571</v>
       </c>
       <c r="H28" s="4">
-        <v>0.1670222854433381</v>
+        <v>0.2105126675018978</v>
       </c>
       <c r="I28" s="4">
-        <v>0.8897795591182366</v>
+        <v>0.8877755511022045</v>
       </c>
       <c r="J28" s="4">
-        <v>0.08499793359966934</v>
+        <v>0.1202023852547887</v>
       </c>
       <c r="K28" s="4">
-        <v>0.7855711422845691</v>
+        <v>0.8036072144288577</v>
       </c>
       <c r="L28" s="4">
-        <v>0.811122244488978</v>
+        <v>0.7955911823647295</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1656,37 +1656,37 @@
         <v>39</v>
       </c>
       <c r="B29" s="2">
-        <v>119.96</v>
+        <v>171.63</v>
       </c>
       <c r="C29" s="3">
-        <v>1667</v>
+        <v>1165</v>
       </c>
       <c r="D29" s="4">
-        <v>0.3367567068605362</v>
+        <v>0.4978391066845096</v>
       </c>
       <c r="E29" s="4">
-        <v>0.9118236472945892</v>
+        <v>0.939879759519038</v>
       </c>
       <c r="F29" s="4">
-        <v>0.2006079805118704</v>
+        <v>0.1130376492206651</v>
       </c>
       <c r="G29" s="4">
-        <v>0.9218436873747495</v>
+        <v>0.7535070140280561</v>
       </c>
       <c r="H29" s="4">
-        <v>0.2000098210522439</v>
+        <v>0.171890823083551</v>
       </c>
       <c r="I29" s="4">
-        <v>0.9418837675350702</v>
+        <v>0.8156312625250501</v>
       </c>
       <c r="J29" s="4">
-        <v>0.03157154164101672</v>
+        <v>0.09243347893566289</v>
       </c>
       <c r="K29" s="4">
-        <v>0.4529058116232465</v>
+        <v>0.6513026052104209</v>
       </c>
       <c r="L29" s="4">
-        <v>0.8071142284569138</v>
+        <v>0.7900801603206413</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1694,37 +1694,37 @@
         <v>40</v>
       </c>
       <c r="B30" s="2">
-        <v>152.42</v>
+        <v>63.1</v>
       </c>
       <c r="C30" s="3">
-        <v>1312</v>
+        <v>3169</v>
       </c>
       <c r="D30" s="4">
-        <v>0.08963235859781693</v>
+        <v>0.2282702622749178</v>
       </c>
       <c r="E30" s="4">
-        <v>0.7194388777555111</v>
+        <v>0.8016032064128257</v>
       </c>
       <c r="F30" s="4">
-        <v>0.1957984066965337</v>
+        <v>0.08857829363498215</v>
       </c>
       <c r="G30" s="4">
-        <v>0.9178356713426854</v>
+        <v>0.685370741482966</v>
       </c>
       <c r="H30" s="4">
-        <v>0.1511890427453342</v>
+        <v>0.2267589343856</v>
       </c>
       <c r="I30" s="4">
-        <v>0.8577154308617234</v>
+        <v>0.9218436873747495</v>
       </c>
       <c r="J30" s="4">
-        <v>0.07339835800996419</v>
+        <v>0.1071929824561404</v>
       </c>
       <c r="K30" s="4">
-        <v>0.717434869739479</v>
+        <v>0.749498997995992</v>
       </c>
       <c r="L30" s="4">
-        <v>0.8031062124248497</v>
+        <v>0.7895791583166333</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1732,37 +1732,37 @@
         <v>41</v>
       </c>
       <c r="B31" s="2">
-        <v>286.6</v>
+        <v>130.03</v>
       </c>
       <c r="C31" s="3">
-        <v>697</v>
+        <v>1538</v>
       </c>
       <c r="D31" s="4">
-        <v>0.4296795781788683</v>
+        <v>0.328600921396536</v>
       </c>
       <c r="E31" s="4">
-        <v>0.9418837675350702</v>
+        <v>0.8777555110220442</v>
       </c>
       <c r="F31" s="4">
-        <v>0.120915717266411</v>
+        <v>0.07628047223206247</v>
       </c>
       <c r="G31" s="4">
-        <v>0.8376753507014029</v>
+        <v>0.655310621242485</v>
       </c>
       <c r="H31" s="4">
-        <v>0.1861152297128194</v>
+        <v>0.2146739004105009</v>
       </c>
       <c r="I31" s="4">
-        <v>0.9298597194388778</v>
+        <v>0.8977955911823647</v>
       </c>
       <c r="J31" s="4">
-        <v>0.03696812129279947</v>
+        <v>0.09873843566021856</v>
       </c>
       <c r="K31" s="4">
-        <v>0.4869739478957916</v>
+        <v>0.7074148296593187</v>
       </c>
       <c r="L31" s="4">
-        <v>0.7990981963927856</v>
+        <v>0.7845691382765532</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1770,37 +1770,37 @@
         <v>42</v>
       </c>
       <c r="B32" s="2">
-        <v>154.98</v>
+        <v>330.34</v>
       </c>
       <c r="C32" s="3">
-        <v>1290</v>
+        <v>605</v>
       </c>
       <c r="D32" s="4">
-        <v>-0.009863969452329036</v>
+        <v>0.3486220262692765</v>
       </c>
       <c r="E32" s="4">
-        <v>0.5891783567134269</v>
+        <v>0.8897795591182366</v>
       </c>
       <c r="F32" s="4">
-        <v>0.1602379817670301</v>
+        <v>0.2096368619598665</v>
       </c>
       <c r="G32" s="4">
-        <v>0.8857715430861723</v>
+        <v>0.8897795591182366</v>
       </c>
       <c r="H32" s="4">
-        <v>0.1802450099187809</v>
+        <v>0.2624775851763299</v>
       </c>
       <c r="I32" s="4">
-        <v>0.9238476953907816</v>
+        <v>0.9599198396793588</v>
       </c>
       <c r="J32" s="4">
-        <v>0.08769907040426594</v>
+        <v>0.05271650637925518</v>
       </c>
       <c r="K32" s="4">
-        <v>0.7955911823647296</v>
+        <v>0.3967935871743487</v>
       </c>
       <c r="L32" s="4">
-        <v>0.7985971943887776</v>
+        <v>0.7840681362725451</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1808,37 +1808,37 @@
         <v>43</v>
       </c>
       <c r="B33" s="2">
-        <v>76.7</v>
+        <v>39.57</v>
       </c>
       <c r="C33" s="3">
-        <v>2607</v>
+        <v>5054</v>
       </c>
       <c r="D33" s="4">
-        <v>0.3076827867894298</v>
+        <v>0.08270153074409881</v>
       </c>
       <c r="E33" s="4">
-        <v>0.8937875751503006</v>
+        <v>0.655310621242485</v>
       </c>
       <c r="F33" s="4">
-        <v>0.1399362822522394</v>
+        <v>0.02398386324927038</v>
       </c>
       <c r="G33" s="4">
-        <v>0.8597194388777555</v>
+        <v>0.5090180360721444</v>
       </c>
       <c r="H33" s="4">
-        <v>0.1705129822768914</v>
+        <v>0.3481014802018765</v>
       </c>
       <c r="I33" s="4">
-        <v>0.8977955911823647</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="J33" s="4">
-        <v>0.04712546371814175</v>
+        <v>0.2559166929630796</v>
       </c>
       <c r="K33" s="4">
-        <v>0.5390781563126253</v>
+        <v>0.9839679358717436</v>
       </c>
       <c r="L33" s="4">
-        <v>0.7975951903807615</v>
+        <v>0.7825651302605211</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -1846,37 +1846,37 @@
         <v>44</v>
       </c>
       <c r="B34" s="2">
-        <v>170.69</v>
+        <v>356.42</v>
       </c>
       <c r="C34" s="3">
-        <v>1171</v>
+        <v>561</v>
       </c>
       <c r="D34" s="4">
-        <v>0.418455294580808</v>
+        <v>0.04218574718072854</v>
       </c>
       <c r="E34" s="4">
-        <v>0.9318637274549099</v>
+        <v>0.5891783567134269</v>
       </c>
       <c r="F34" s="4">
-        <v>0.08039586631146811</v>
+        <v>0.1839492923737338</v>
       </c>
       <c r="G34" s="4">
-        <v>0.7595190380761524</v>
+        <v>0.8657314629258518</v>
       </c>
       <c r="H34" s="4">
-        <v>0.1454675574797533</v>
+        <v>0.2088412546226543</v>
       </c>
       <c r="I34" s="4">
-        <v>0.843687374749499</v>
+        <v>0.8857715430861723</v>
       </c>
       <c r="J34" s="4">
-        <v>0.06047954645077258</v>
+        <v>0.1182097494536125</v>
       </c>
       <c r="K34" s="4">
-        <v>0.6492985971943888</v>
+        <v>0.7895791583166333</v>
       </c>
       <c r="L34" s="4">
-        <v>0.7960921843687375</v>
+        <v>0.7825651302605211</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -1884,37 +1884,37 @@
         <v>45</v>
       </c>
       <c r="B35" s="2">
-        <v>133.62</v>
+        <v>330.93</v>
       </c>
       <c r="C35" s="3">
-        <v>1496</v>
+        <v>604</v>
       </c>
       <c r="D35" s="4">
-        <v>1.054377175748017</v>
+        <v>0.1657430624328367</v>
       </c>
       <c r="E35" s="4">
-        <v>0.995991983967936</v>
+        <v>0.7374749498997996</v>
       </c>
       <c r="F35" s="4">
-        <v>0.0419500495928149</v>
+        <v>0.2120408840614161</v>
       </c>
       <c r="G35" s="4">
-        <v>0.6472945891783567</v>
+        <v>0.8957915831663327</v>
       </c>
       <c r="H35" s="4">
-        <v>0.103129558976635</v>
+        <v>0.2436217321914265</v>
       </c>
       <c r="I35" s="4">
-        <v>0.7695390781563127</v>
+        <v>0.9418837675350702</v>
       </c>
       <c r="J35" s="4">
-        <v>0.08071295080997509</v>
+        <v>0.07823199186916607</v>
       </c>
       <c r="K35" s="4">
-        <v>0.7655310621242485</v>
+        <v>0.5551102204408818</v>
       </c>
       <c r="L35" s="4">
-        <v>0.7945891783567135</v>
+        <v>0.782565130260521</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -1922,37 +1922,37 @@
         <v>46</v>
       </c>
       <c r="B36" s="2">
-        <v>864</v>
+        <v>79.26000000000001</v>
       </c>
       <c r="C36" s="3">
-        <v>231</v>
+        <v>2523</v>
       </c>
       <c r="D36" s="4">
-        <v>0.3191492664752</v>
+        <v>0.7952432882712415</v>
       </c>
       <c r="E36" s="4">
-        <v>0.905811623246493</v>
+        <v>0.9759519038076152</v>
       </c>
       <c r="F36" s="4">
-        <v>0.3126486853894399</v>
+        <v>0.4473209127671864</v>
       </c>
       <c r="G36" s="4">
-        <v>0.9759519038076152</v>
+        <v>0.9879759519038076</v>
       </c>
       <c r="H36" s="4">
-        <v>0.2056841238985769</v>
+        <v>0.1419756163919155</v>
       </c>
       <c r="I36" s="4">
-        <v>0.9519038076152304</v>
+        <v>0.74749498997996</v>
       </c>
       <c r="J36" s="4">
-        <v>0.01605883056319501</v>
+        <v>0.05625823451910406</v>
       </c>
       <c r="K36" s="4">
-        <v>0.3406813627254509</v>
+        <v>0.4168336673346693</v>
       </c>
       <c r="L36" s="4">
-        <v>0.7935871743486974</v>
+        <v>0.7820641282565131</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -1960,37 +1960,37 @@
         <v>47</v>
       </c>
       <c r="B37" s="2">
-        <v>148.9</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="C37" s="3">
-        <v>1343</v>
+        <v>2989</v>
       </c>
       <c r="D37" s="4">
-        <v>0.2975118843372984</v>
+        <v>-0.08971337754151365</v>
       </c>
       <c r="E37" s="4">
-        <v>0.8897795591182366</v>
+        <v>0.3987975951903808</v>
       </c>
       <c r="F37" s="4">
-        <v>0.0777932938287158</v>
+        <v>0.2363759520783362</v>
       </c>
       <c r="G37" s="4">
-        <v>0.751503006012024</v>
+        <v>0.9178356713426854</v>
       </c>
       <c r="H37" s="4">
-        <v>0.1375690547670116</v>
+        <v>0.2356286567652714</v>
       </c>
       <c r="I37" s="4">
-        <v>0.8356713426853708</v>
+        <v>0.9318637274549099</v>
       </c>
       <c r="J37" s="4">
-        <v>0.07022311839740514</v>
+        <v>0.1486860304287689</v>
       </c>
       <c r="K37" s="4">
-        <v>0.691382765531062</v>
+        <v>0.8777555110220442</v>
       </c>
       <c r="L37" s="4">
-        <v>0.7920841683366734</v>
+        <v>0.781563126252505</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -1998,37 +1998,37 @@
         <v>48</v>
       </c>
       <c r="B38" s="2">
-        <v>89.66</v>
+        <v>383.81</v>
       </c>
       <c r="C38" s="3">
-        <v>2230</v>
+        <v>521</v>
       </c>
       <c r="D38" s="4">
-        <v>0.3137748946742691</v>
+        <v>0.03940842412062784</v>
       </c>
       <c r="E38" s="4">
-        <v>0.901803607214429</v>
+        <v>0.5851703406813628</v>
       </c>
       <c r="F38" s="4">
-        <v>0.2533796886640569</v>
+        <v>0.1981549375836212</v>
       </c>
       <c r="G38" s="4">
-        <v>0.9539078156312626</v>
+        <v>0.8837675350701403</v>
       </c>
       <c r="H38" s="4">
-        <v>0.1969250855993285</v>
+        <v>0.1683724026293296</v>
       </c>
       <c r="I38" s="4">
-        <v>0.939879759519038</v>
+        <v>0.807615230460922</v>
       </c>
       <c r="J38" s="4">
-        <v>0.02079309169412569</v>
+        <v>0.1282180436585176</v>
       </c>
       <c r="K38" s="4">
-        <v>0.3707414829659318</v>
+        <v>0.8396793587174349</v>
       </c>
       <c r="L38" s="4">
-        <v>0.7915831663326653</v>
+        <v>0.779058116232465</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2036,37 +2036,37 @@
         <v>49</v>
       </c>
       <c r="B39" s="2">
-        <v>66.44</v>
+        <v>238.47</v>
       </c>
       <c r="C39" s="3">
-        <v>3010</v>
+        <v>838</v>
       </c>
       <c r="D39" s="4">
-        <v>-0.1451282111611747</v>
+        <v>0.07543104316632099</v>
       </c>
       <c r="E39" s="4">
-        <v>0.376753507014028</v>
+        <v>0.6432865731462926</v>
       </c>
       <c r="F39" s="4">
-        <v>0.2125751833695499</v>
+        <v>0.1483878493279955</v>
       </c>
       <c r="G39" s="4">
-        <v>0.9278557114228456</v>
+        <v>0.8276553106212425</v>
       </c>
       <c r="H39" s="4">
-        <v>0.2098072077871629</v>
+        <v>0.2172948912329633</v>
       </c>
       <c r="I39" s="4">
-        <v>0.9539078156312626</v>
+        <v>0.9038076152304609</v>
       </c>
       <c r="J39" s="4">
-        <v>0.1141396933560477</v>
+        <v>0.1046121304087919</v>
       </c>
       <c r="K39" s="4">
-        <v>0.905811623246493</v>
+        <v>0.7374749498997996</v>
       </c>
       <c r="L39" s="4">
-        <v>0.7910821643286573</v>
+        <v>0.7780561122244489</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2074,37 +2074,37 @@
         <v>50</v>
       </c>
       <c r="B40" s="2">
-        <v>141.93</v>
+        <v>103.25</v>
       </c>
       <c r="C40" s="3">
-        <v>1409</v>
+        <v>1937</v>
       </c>
       <c r="D40" s="4">
-        <v>0.7391957281443451</v>
+        <v>0.227739317259489</v>
       </c>
       <c r="E40" s="4">
-        <v>0.9799599198396794</v>
+        <v>0.7995991983967936</v>
       </c>
       <c r="F40" s="4">
-        <v>0.07395048684640582</v>
+        <v>0.1541741472172351</v>
       </c>
       <c r="G40" s="4">
-        <v>0.7334669338677355</v>
+        <v>0.8336673346693386</v>
       </c>
       <c r="H40" s="4">
-        <v>0.1367860389897737</v>
+        <v>0.1579421366655409</v>
       </c>
       <c r="I40" s="4">
-        <v>0.8276553106212425</v>
+        <v>0.7815631262525051</v>
       </c>
       <c r="J40" s="4">
-        <v>0.05684793178248171</v>
+        <v>0.0975245411865131</v>
       </c>
       <c r="K40" s="4">
-        <v>0.6172344689378757</v>
+        <v>0.687374749498998</v>
       </c>
       <c r="L40" s="4">
-        <v>0.7895791583166333</v>
+        <v>0.7755511022044088</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2112,37 +2112,37 @@
         <v>51</v>
       </c>
       <c r="B41" s="2">
-        <v>96.09</v>
+        <v>130.2</v>
       </c>
       <c r="C41" s="3">
-        <v>2081</v>
+        <v>1536</v>
       </c>
       <c r="D41" s="4">
-        <v>0.797571004340212</v>
+        <v>0.1075167248991089</v>
       </c>
       <c r="E41" s="4">
-        <v>0.9839679358717436</v>
+        <v>0.685370741482966</v>
       </c>
       <c r="F41" s="4">
-        <v>0.4225820398829154</v>
+        <v>0.05379891084627664</v>
       </c>
       <c r="G41" s="4">
-        <v>0.9919839679358717</v>
+        <v>0.5851703406813628</v>
       </c>
       <c r="H41" s="4">
-        <v>0.1675855596757023</v>
+        <v>0.3394397180471715</v>
       </c>
       <c r="I41" s="4">
-        <v>0.8937875751503006</v>
+        <v>0.9799599198396794</v>
       </c>
       <c r="J41" s="4">
-        <v>0.008794232897610055</v>
+        <v>0.13101540722173</v>
       </c>
       <c r="K41" s="4">
-        <v>0.2845691382765531</v>
+        <v>0.8496993987975953</v>
       </c>
       <c r="L41" s="4">
-        <v>0.7885771543086173</v>
+        <v>0.7750501002004009</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2150,37 +2150,37 @@
         <v>52</v>
       </c>
       <c r="B42" s="2">
-        <v>80.17</v>
+        <v>1490.33</v>
       </c>
       <c r="C42" s="3">
-        <v>2494</v>
+        <v>134</v>
       </c>
       <c r="D42" s="4">
-        <v>0.7152004047567644</v>
+        <v>-0.02943604578206637</v>
       </c>
       <c r="E42" s="4">
-        <v>0.9719438877755512</v>
+        <v>0.4849699398797596</v>
       </c>
       <c r="F42" s="4">
-        <v>0.3859201787511037</v>
+        <v>0.142630547693839</v>
       </c>
       <c r="G42" s="4">
-        <v>0.9859719438877755</v>
+        <v>0.8136272545090181</v>
       </c>
       <c r="H42" s="4">
-        <v>0.1368827008805962</v>
+        <v>0.2120482325190109</v>
       </c>
       <c r="I42" s="4">
-        <v>0.8296593186372746</v>
+        <v>0.8937875751503006</v>
       </c>
       <c r="J42" s="4">
-        <v>0.01957479906663218</v>
+        <v>0.1617717976488817</v>
       </c>
       <c r="K42" s="4">
-        <v>0.3627254509018036</v>
+        <v>0.9078156312625251</v>
       </c>
       <c r="L42" s="4">
-        <v>0.7875751503006012</v>
+        <v>0.7750501002004009</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2188,37 +2188,37 @@
         <v>53</v>
       </c>
       <c r="B43" s="2">
-        <v>163.45</v>
+        <v>78.31999999999999</v>
       </c>
       <c r="C43" s="3">
-        <v>1223</v>
+        <v>2553</v>
       </c>
       <c r="D43" s="4">
-        <v>-0.009907640227974636</v>
+        <v>-0.03514254766717473</v>
       </c>
       <c r="E43" s="4">
-        <v>0.5871743486973948</v>
+        <v>0.468937875751503</v>
       </c>
       <c r="F43" s="4">
-        <v>0.1720308551669105</v>
+        <v>0.09947934744880248</v>
       </c>
       <c r="G43" s="4">
-        <v>0.8937875751503006</v>
+        <v>0.7194388777555111</v>
       </c>
       <c r="H43" s="4">
-        <v>0.1583011583011584</v>
+        <v>0.2190316095404348</v>
       </c>
       <c r="I43" s="4">
-        <v>0.8737474949899799</v>
+        <v>0.9118236472945892</v>
       </c>
       <c r="J43" s="4">
-        <v>0.0845392129649758</v>
+        <v>0.2883335773667171</v>
       </c>
       <c r="K43" s="4">
-        <v>0.7835671342685372</v>
+        <v>0.9899799599198397</v>
       </c>
       <c r="L43" s="4">
-        <v>0.7845691382765532</v>
+        <v>0.7725450901803608</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2226,37 +2226,37 @@
         <v>54</v>
       </c>
       <c r="B44" s="2">
-        <v>63.11</v>
+        <v>857.1799999999999</v>
       </c>
       <c r="C44" s="3">
-        <v>3169</v>
+        <v>233</v>
       </c>
       <c r="D44" s="4">
-        <v>0.1446307243180003</v>
+        <v>0.3547386235426853</v>
       </c>
       <c r="E44" s="4">
-        <v>0.7775551102204409</v>
+        <v>0.8957915831663327</v>
       </c>
       <c r="F44" s="4">
-        <v>0.05402386993510122</v>
+        <v>0.3568435425396677</v>
       </c>
       <c r="G44" s="4">
-        <v>0.685370741482966</v>
+        <v>0.9739478957915831</v>
       </c>
       <c r="H44" s="4">
-        <v>0.1705465789518805</v>
+        <v>0.2401595134266696</v>
       </c>
       <c r="I44" s="4">
-        <v>0.8997995991983969</v>
+        <v>0.939879759519038</v>
       </c>
       <c r="J44" s="4">
-        <v>0.08169014084507054</v>
+        <v>0.03269347922166355</v>
       </c>
       <c r="K44" s="4">
-        <v>0.7695390781563127</v>
+        <v>0.280561122244489</v>
       </c>
       <c r="L44" s="4">
-        <v>0.7830661322645291</v>
+        <v>0.7725450901803607</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2264,37 +2264,37 @@
         <v>55</v>
       </c>
       <c r="B45" s="2">
-        <v>331.95</v>
+        <v>285.94</v>
       </c>
       <c r="C45" s="3">
-        <v>602</v>
+        <v>699</v>
       </c>
       <c r="D45" s="4">
-        <v>0.1235643805714222</v>
+        <v>0.4855496066716944</v>
       </c>
       <c r="E45" s="4">
-        <v>0.7535070140280561</v>
+        <v>0.935871743486974</v>
       </c>
       <c r="F45" s="4">
-        <v>0.1753212954179204</v>
+        <v>0.1318829370623289</v>
       </c>
       <c r="G45" s="4">
-        <v>0.8997995991983969</v>
+        <v>0.7895791583166333</v>
       </c>
       <c r="H45" s="4">
-        <v>0.2016028778033419</v>
+        <v>0.200052628006312</v>
       </c>
       <c r="I45" s="4">
-        <v>0.9458917835671343</v>
+        <v>0.8677354709418837</v>
       </c>
       <c r="J45" s="4">
-        <v>0.04367057603552516</v>
+        <v>0.06666428305933003</v>
       </c>
       <c r="K45" s="4">
-        <v>0.5190380761523046</v>
+        <v>0.4849699398797596</v>
       </c>
       <c r="L45" s="4">
-        <v>0.7795591182364729</v>
+        <v>0.7695390781563126</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2302,37 +2302,37 @@
         <v>56</v>
       </c>
       <c r="B46" s="2">
-        <v>353.03</v>
+        <v>120.41</v>
       </c>
       <c r="C46" s="3">
-        <v>566</v>
+        <v>1660</v>
       </c>
       <c r="D46" s="4">
-        <v>-0.04002576886448928</v>
+        <v>0.3975585830554758</v>
       </c>
       <c r="E46" s="4">
-        <v>0.5390781563126253</v>
+        <v>0.9098196392785571</v>
       </c>
       <c r="F46" s="4">
-        <v>0.1521885295501917</v>
+        <v>0.2345043767481778</v>
       </c>
       <c r="G46" s="4">
-        <v>0.8697394789579158</v>
+        <v>0.9158316633266533</v>
       </c>
       <c r="H46" s="4">
-        <v>0.1377684825548584</v>
+        <v>0.2366921063456242</v>
       </c>
       <c r="I46" s="4">
-        <v>0.8376753507014029</v>
+        <v>0.935871743486974</v>
       </c>
       <c r="J46" s="4">
-        <v>0.1070448011886691</v>
+        <v>0.03843490304709141</v>
       </c>
       <c r="K46" s="4">
-        <v>0.8697394789579158</v>
+        <v>0.312625250501002</v>
       </c>
       <c r="L46" s="4">
-        <v>0.779058116232465</v>
+        <v>0.7685370741482966</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2340,37 +2340,37 @@
         <v>57</v>
       </c>
       <c r="B47" s="2">
-        <v>240.6</v>
+        <v>79.86</v>
       </c>
       <c r="C47" s="3">
-        <v>831</v>
+        <v>2504</v>
       </c>
       <c r="D47" s="4">
-        <v>0.1461859056224832</v>
+        <v>0.2323475788758076</v>
       </c>
       <c r="E47" s="4">
-        <v>0.7795591182364729</v>
+        <v>0.8096192384769538</v>
       </c>
       <c r="F47" s="4">
-        <v>0.0871719348005926</v>
+        <v>0.09082305444131555</v>
       </c>
       <c r="G47" s="4">
-        <v>0.7715430861723448</v>
+        <v>0.691382765531062</v>
       </c>
       <c r="H47" s="4">
-        <v>0.08772815436844428</v>
+        <v>0.2046282130089578</v>
       </c>
       <c r="I47" s="4">
-        <v>0.7194388777555111</v>
+        <v>0.8797595190380761</v>
       </c>
       <c r="J47" s="4">
-        <v>0.09699292398744408</v>
+        <v>0.09635738831615126</v>
       </c>
       <c r="K47" s="4">
-        <v>0.8336673346693386</v>
+        <v>0.6833667334669339</v>
       </c>
       <c r="L47" s="4">
-        <v>0.7760521042084169</v>
+        <v>0.7660320641282565</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2378,37 +2378,37 @@
         <v>58</v>
       </c>
       <c r="B48" s="2">
-        <v>112.35</v>
+        <v>113.8</v>
       </c>
       <c r="C48" s="3">
-        <v>1780</v>
+        <v>1757</v>
       </c>
       <c r="D48" s="4">
-        <v>-0.1008933787850769</v>
+        <v>-0.06026279184339889</v>
       </c>
       <c r="E48" s="4">
-        <v>0.4589178356713427</v>
+        <v>0.4448897795591183</v>
       </c>
       <c r="F48" s="4">
-        <v>0.2866540671055436</v>
+        <v>0.3414989444725705</v>
       </c>
       <c r="G48" s="4">
-        <v>0.9699398797595191</v>
+        <v>0.9719438877755512</v>
       </c>
       <c r="H48" s="4">
-        <v>0.2008310082805758</v>
+        <v>0.2365544650787554</v>
       </c>
       <c r="I48" s="4">
-        <v>0.9438877755511023</v>
+        <v>0.9338677354709419</v>
       </c>
       <c r="J48" s="4">
-        <v>0.07465360808004928</v>
+        <v>0.09977563989616001</v>
       </c>
       <c r="K48" s="4">
-        <v>0.7254509018036072</v>
+        <v>0.7114228456913828</v>
       </c>
       <c r="L48" s="4">
-        <v>0.7745490981963928</v>
+        <v>0.7655310621242486</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2416,37 +2416,37 @@
         <v>59</v>
       </c>
       <c r="B49" s="2">
-        <v>102.86</v>
+        <v>95.64</v>
       </c>
       <c r="C49" s="3">
-        <v>1944</v>
+        <v>2091</v>
       </c>
       <c r="D49" s="4">
-        <v>0.1489925158318943</v>
+        <v>0.1222038644965491</v>
       </c>
       <c r="E49" s="4">
-        <v>0.7815631262525051</v>
+        <v>0.6953907815631263</v>
       </c>
       <c r="F49" s="4">
-        <v>0.1128582580573214</v>
+        <v>0.09915586390529139</v>
       </c>
       <c r="G49" s="4">
-        <v>0.8276553106212425</v>
+        <v>0.717434869739479</v>
       </c>
       <c r="H49" s="4">
-        <v>0.1264251044135907</v>
+        <v>0.1851945355069531</v>
       </c>
       <c r="I49" s="4">
-        <v>0.8036072144288577</v>
+        <v>0.843687374749499</v>
       </c>
       <c r="J49" s="4">
-        <v>0.06681633525764386</v>
+        <v>0.118681644720166</v>
       </c>
       <c r="K49" s="4">
-        <v>0.6753507014028056</v>
+        <v>0.7955911823647296</v>
       </c>
       <c r="L49" s="4">
-        <v>0.7720440881763527</v>
+        <v>0.7630260521042085</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2454,37 +2454,37 @@
         <v>60</v>
       </c>
       <c r="B50" s="2">
-        <v>149.95</v>
+        <v>149.16</v>
       </c>
       <c r="C50" s="3">
-        <v>1333</v>
+        <v>1340</v>
       </c>
       <c r="D50" s="4">
-        <v>0.3341029906815189</v>
+        <v>0.3346252338283129</v>
       </c>
       <c r="E50" s="4">
-        <v>0.9098196392785571</v>
+        <v>0.8797595190380761</v>
       </c>
       <c r="F50" s="4">
-        <v>0.07715757615729024</v>
+        <v>0.09891731920263912</v>
       </c>
       <c r="G50" s="4">
-        <v>0.74749498997996</v>
+        <v>0.7154308617234468</v>
       </c>
       <c r="H50" s="4">
-        <v>0.05818696484132602</v>
+        <v>0.1730265345062023</v>
       </c>
       <c r="I50" s="4">
-        <v>0.593186372745491</v>
+        <v>0.8196392785571143</v>
       </c>
       <c r="J50" s="4">
-        <v>0.09694029850746276</v>
+        <v>0.08956056098099974</v>
       </c>
       <c r="K50" s="4">
-        <v>0.8316633266533066</v>
+        <v>0.6312625250501003</v>
       </c>
       <c r="L50" s="4">
-        <v>0.7705410821643287</v>
+        <v>0.7615230460921844</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2492,37 +2492,37 @@
         <v>61</v>
       </c>
       <c r="B51" s="2">
-        <v>95.77</v>
+        <v>94.47</v>
       </c>
       <c r="C51" s="3">
-        <v>2088</v>
+        <v>2117</v>
       </c>
       <c r="D51" s="4">
-        <v>0.0683646917420655</v>
+        <v>0.8297418716211074</v>
       </c>
       <c r="E51" s="4">
-        <v>0.691382765531062</v>
+        <v>0.9819639278557115</v>
       </c>
       <c r="F51" s="4">
-        <v>0.08558273381294956</v>
+        <v>0.5534721200886314</v>
       </c>
       <c r="G51" s="4">
-        <v>0.7695390781563127</v>
+        <v>0.9939879759519039</v>
       </c>
       <c r="H51" s="4">
-        <v>0.1247452298804652</v>
+        <v>0.1798874123247416</v>
       </c>
       <c r="I51" s="4">
-        <v>0.7995991983967936</v>
+        <v>0.8356713426853708</v>
       </c>
       <c r="J51" s="4">
-        <v>0.09154334576380264</v>
+        <v>0.0182678006178254</v>
       </c>
       <c r="K51" s="4">
-        <v>0.8176352705410822</v>
+        <v>0.218436873747495</v>
       </c>
       <c r="L51" s="4">
-        <v>0.7695390781563126</v>
+        <v>0.7575150300601203</v>
       </c>
     </row>
   </sheetData>
